--- a/rotor-ring-map.xlsx
+++ b/rotor-ring-map.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pat.hearps/Documents/DataScienceStudy/ENIGMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5CAAE9-1D77-3C46-9F10-A03FBEFA8C82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CCC12-D3E3-1049-A8CB-7C379AE762B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{A35B3064-C88D-FE40-A178-BB01BEFC4815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEB03A6-2973-F843-A284-ADB6AB420C22}">
   <dimension ref="A2:AD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="AF98" sqref="AF98"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,14 +762,14 @@
         <v>4</v>
       </c>
       <c r="G4" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F4,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G4:G29" si="0">INDEX($D$4:$E$29, MATCH(F4,$E$4:$E$29,0),1)</f>
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" ref="I4:I29" si="0">INDEX($D$4:$E$29, MATCH(H4,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I4:I29" si="1">INDEX($D$4:$E$29, MATCH(H4,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
@@ -782,14 +782,14 @@
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(M4,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N4:N29" si="2">INDEX($D$4:$E$29, MATCH(M4,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4:P29" si="1">INDEX($D$4:$E$29, MATCH(O4,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P4:P29" si="3">INDEX($D$4:$E$29, MATCH(O4,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="R4" s="3">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="3">
-        <f t="shared" ref="W4:W29" si="2">INDEX($D$4:$E$29, MATCH(V4,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W4:W29" si="4">INDEX($D$4:$E$29, MATCH(V4,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="X4" s="2"/>
@@ -823,14 +823,14 @@
         <v>24</v>
       </c>
       <c r="AB4" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA4,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB4:AB29" si="5">INDEX($D$4:$E$29, MATCH(AA4,$E$4:$E$29,0),1)</f>
         <v>24</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AD4" s="4">
-        <f t="shared" ref="AD4:AD29" si="3">INDEX($D$4:$E$29, MATCH(AC4,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD4:AD29" si="6">INDEX($D$4:$E$29, MATCH(AC4,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -851,14 +851,14 @@
         <v>10</v>
       </c>
       <c r="G5" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F5,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K5" s="3">
@@ -871,14 +871,14 @@
         <v>9</v>
       </c>
       <c r="N5" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(M5,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R5" s="3">
@@ -891,14 +891,14 @@
         <v>3</v>
       </c>
       <c r="U5" s="3">
-        <f t="shared" ref="U5:U29" si="4">INDEX($D$4:$E$29, MATCH(T5,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U5:U29" si="7">INDEX($D$4:$E$29, MATCH(T5,$E$4:$E$29,0),1)</f>
         <v>3</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="W5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X5" s="2"/>
@@ -912,14 +912,14 @@
         <v>17</v>
       </c>
       <c r="AB5" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA5,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="AC5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -940,14 +940,14 @@
         <v>12</v>
       </c>
       <c r="G6" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F6,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K6" s="3">
@@ -960,14 +960,14 @@
         <v>3</v>
       </c>
       <c r="N6" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(M6,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="R6" s="3">
@@ -987,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="X6" s="2"/>
@@ -1001,14 +1001,14 @@
         <v>20</v>
       </c>
       <c r="AB6" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA6,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="AD6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -1029,14 +1029,14 @@
         <v>5</v>
       </c>
       <c r="G7" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F7,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K7" s="3">
@@ -1049,14 +1049,14 @@
         <v>10</v>
       </c>
       <c r="N7" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(M7,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="R7" s="3">
@@ -1069,14 +1069,14 @@
         <v>7</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="V7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="X7" s="2"/>
@@ -1090,14 +1090,14 @@
         <v>7</v>
       </c>
       <c r="AB7" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA7,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="AC7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="AD7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -1118,14 +1118,14 @@
         <v>11</v>
       </c>
       <c r="G8" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F8,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K8" s="3">
@@ -1138,14 +1138,14 @@
         <v>18</v>
       </c>
       <c r="N8" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(M8,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="R8" s="3">
@@ -1158,14 +1158,14 @@
         <v>9</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="V8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="W8" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X8" s="2" t="s">
@@ -1181,14 +1181,14 @@
         <v>16</v>
       </c>
       <c r="AB8" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA8,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="AC8" s="17" t="s">
         <v>4</v>
       </c>
       <c r="AD8" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -1210,14 +1210,14 @@
         <v>6</v>
       </c>
       <c r="G9" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F9,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="J9" s="5"/>
@@ -1231,14 +1231,14 @@
         <v>8</v>
       </c>
       <c r="N9" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M9,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="Q9" s="5"/>
@@ -1252,14 +1252,14 @@
         <v>11</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X9" s="2"/>
@@ -1273,14 +1273,14 @@
         <v>18</v>
       </c>
       <c r="AB9" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA9,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="AC9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -1302,14 +1302,14 @@
         <v>3</v>
       </c>
       <c r="G10" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F10,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J10" s="5"/>
@@ -1323,14 +1323,14 @@
         <v>17</v>
       </c>
       <c r="N10" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M10,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="Q10" s="5"/>
@@ -1344,14 +1344,14 @@
         <v>2</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="X10" s="2"/>
@@ -1365,14 +1365,14 @@
         <v>11</v>
       </c>
       <c r="AB10" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA10,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
@@ -1394,14 +1394,14 @@
         <v>16</v>
       </c>
       <c r="G11" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F11,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J11" s="5"/>
@@ -1415,14 +1415,14 @@
         <v>20</v>
       </c>
       <c r="N11" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M11,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="Q11" s="5"/>
@@ -1436,14 +1436,14 @@
         <v>15</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="V11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="X11" s="2"/>
@@ -1457,14 +1457,14 @@
         <v>3</v>
       </c>
       <c r="AB11" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA11,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AC11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
@@ -1488,14 +1488,14 @@
         <v>21</v>
       </c>
       <c r="G12" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(F12,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="J12" s="5"/>
@@ -1509,14 +1509,14 @@
         <v>23</v>
       </c>
       <c r="N12" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M12,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="Q12" s="5"/>
@@ -1530,14 +1530,14 @@
         <v>17</v>
       </c>
       <c r="U12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="V12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="X12" s="2"/>
@@ -1551,14 +1551,14 @@
         <v>15</v>
       </c>
       <c r="AB12" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA12,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="AC12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
@@ -1580,14 +1580,14 @@
         <v>25</v>
       </c>
       <c r="G13" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F13,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="J13" s="5"/>
@@ -1601,14 +1601,14 @@
         <v>1</v>
       </c>
       <c r="N13" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M13,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="Q13" s="5"/>
@@ -1622,14 +1622,14 @@
         <v>19</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="X13" s="2"/>
@@ -1643,14 +1643,14 @@
         <v>23</v>
       </c>
       <c r="AB13" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA13,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="AC13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -1672,14 +1672,14 @@
         <v>13</v>
       </c>
       <c r="G14" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F14,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="J14" s="5"/>
@@ -1693,14 +1693,14 @@
         <v>11</v>
       </c>
       <c r="N14" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M14,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="Q14" s="5"/>
@@ -1714,14 +1714,14 @@
         <v>23</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="X14" s="2"/>
@@ -1735,14 +1735,14 @@
         <v>13</v>
       </c>
       <c r="AB14" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA14,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="AC14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -1764,14 +1764,14 @@
         <v>19</v>
       </c>
       <c r="G15" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F15,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="J15" s="5"/>
@@ -1785,14 +1785,14 @@
         <v>7</v>
       </c>
       <c r="N15" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M15,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="Q15" s="5"/>
@@ -1806,14 +1806,14 @@
         <v>21</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="X15" s="2"/>
@@ -1827,14 +1827,14 @@
         <v>6</v>
       </c>
       <c r="AB15" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA15,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="AC15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
     </row>
@@ -1856,14 +1856,14 @@
         <v>14</v>
       </c>
       <c r="G16" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F16,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J16" s="5"/>
@@ -1877,14 +1877,14 @@
         <v>22</v>
       </c>
       <c r="N16" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M16,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="Q16" s="5"/>
@@ -1898,14 +1898,14 @@
         <v>25</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="V16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="X16" s="5" t="s">
@@ -1921,14 +1921,14 @@
         <v>14</v>
       </c>
       <c r="AB16" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(AA16,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="AC16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AD16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1950,14 +1950,14 @@
         <v>22</v>
       </c>
       <c r="G17" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F17,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="J17" s="5"/>
@@ -1971,14 +1971,14 @@
         <v>19</v>
       </c>
       <c r="N17" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M17,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="Q17" s="5"/>
@@ -1992,14 +1992,14 @@
         <v>13</v>
       </c>
       <c r="U17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="V17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="X17" s="2"/>
@@ -2013,14 +2013,14 @@
         <v>10</v>
       </c>
       <c r="AB17" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA17,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="AC17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
     </row>
@@ -2042,14 +2042,14 @@
         <v>24</v>
       </c>
       <c r="G18" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F18,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="J18" s="5"/>
@@ -2063,14 +2063,14 @@
         <v>12</v>
       </c>
       <c r="N18" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M18,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q18" s="5"/>
@@ -2084,14 +2084,14 @@
         <v>24</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="V18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="X18" s="2" t="s">
@@ -2107,14 +2107,14 @@
         <v>12</v>
       </c>
       <c r="AB18" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA18,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AC18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="AD18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
     </row>
@@ -2136,14 +2136,14 @@
         <v>7</v>
       </c>
       <c r="G19" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F19,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="J19" s="5"/>
@@ -2157,14 +2157,14 @@
         <v>2</v>
       </c>
       <c r="N19" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M19,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O19" s="17" t="s">
         <v>15</v>
       </c>
       <c r="P19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -2180,14 +2180,14 @@
         <v>4</v>
       </c>
       <c r="U19" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="X19" s="2"/>
@@ -2201,14 +2201,14 @@
         <v>8</v>
       </c>
       <c r="AB19" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA19,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD19" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
     </row>
@@ -2232,14 +2232,14 @@
         <v>23</v>
       </c>
       <c r="G20" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(F20,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J20" s="5"/>
@@ -2253,14 +2253,14 @@
         <v>16</v>
       </c>
       <c r="N20" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M20,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="Q20" s="5"/>
@@ -2274,14 +2274,14 @@
         <v>8</v>
       </c>
       <c r="U20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="V20" s="15" t="s">
         <v>16</v>
       </c>
       <c r="W20" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="X20" s="5" t="s">
@@ -2297,14 +2297,14 @@
         <v>4</v>
       </c>
       <c r="AB20" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(AA20,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="AC20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD20" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
     </row>
@@ -2328,14 +2328,14 @@
         <v>20</v>
       </c>
       <c r="G21" s="17">
-        <f>INDEX($D$4:$E$29, MATCH(F21,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="J21" s="5"/>
@@ -2349,14 +2349,14 @@
         <v>6</v>
       </c>
       <c r="N21" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M21,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="Q21" s="5"/>
@@ -2370,14 +2370,14 @@
         <v>22</v>
       </c>
       <c r="U21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="V21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="X21" s="2"/>
@@ -2391,14 +2391,14 @@
         <v>1</v>
       </c>
       <c r="AB21" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA21,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AC21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD21" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
     </row>
@@ -2422,14 +2422,14 @@
         <v>18</v>
       </c>
       <c r="G22" s="9">
-        <f>INDEX($D$4:$E$29, MATCH(F22,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="J22" s="2" t="s">
@@ -2445,14 +2445,14 @@
         <v>25</v>
       </c>
       <c r="N22" s="9">
-        <f>INDEX($D$4:$E$29, MATCH(M22,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="R22" s="3">
@@ -2465,14 +2465,14 @@
         <v>6</v>
       </c>
       <c r="U22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="W22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="X22" s="2"/>
@@ -2486,14 +2486,14 @@
         <v>5</v>
       </c>
       <c r="AB22" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA22,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="AC22" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -2514,14 +2514,14 @@
         <v>15</v>
       </c>
       <c r="G23" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F23,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="K23" s="3">
@@ -2534,14 +2534,14 @@
         <v>13</v>
       </c>
       <c r="N23" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(M23,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="R23" s="3">
@@ -2554,14 +2554,14 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="W23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="X23" s="2"/>
@@ -2575,14 +2575,14 @@
         <v>25</v>
       </c>
       <c r="AB23" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA23,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="AC23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
     </row>
@@ -2603,14 +2603,14 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F24,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="J24" s="2" t="s">
@@ -2626,14 +2626,14 @@
         <v>15</v>
       </c>
       <c r="N24" s="17">
-        <f>INDEX($D$4:$E$29, MATCH(M24,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="R24" s="4">
@@ -2646,14 +2646,14 @@
         <v>10</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="V24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="X24" s="2"/>
@@ -2667,14 +2667,14 @@
         <v>2</v>
       </c>
       <c r="AB24" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA24,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AC24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
@@ -2695,14 +2695,14 @@
         <v>8</v>
       </c>
       <c r="G25" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F25,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H25" s="15" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -2718,14 +2718,14 @@
         <v>24</v>
       </c>
       <c r="N25" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(M25,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="Q25" s="5" t="s">
@@ -2741,14 +2741,14 @@
         <v>12</v>
       </c>
       <c r="U25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="V25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="X25" s="2"/>
@@ -2762,14 +2762,14 @@
         <v>22</v>
       </c>
       <c r="AB25" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA25,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="AC25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
@@ -2790,14 +2790,14 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F26,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="K26" s="3">
@@ -2810,14 +2810,14 @@
         <v>5</v>
       </c>
       <c r="N26" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(M26,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="R26" s="4">
@@ -2830,14 +2830,14 @@
         <v>20</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="V26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="X26" s="2"/>
@@ -2851,14 +2851,14 @@
         <v>21</v>
       </c>
       <c r="AB26" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA26,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="AC26" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD26" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
     </row>
@@ -2879,14 +2879,14 @@
         <v>17</v>
       </c>
       <c r="G27" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F27,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="J27" s="5" t="s">
@@ -2902,14 +2902,14 @@
         <v>21</v>
       </c>
       <c r="N27" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(M27,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="R27" s="4">
@@ -2922,14 +2922,14 @@
         <v>18</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="V27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="X27" s="2"/>
@@ -2943,14 +2943,14 @@
         <v>9</v>
       </c>
       <c r="AB27" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA27,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="AC27" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD27" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
     </row>
@@ -2971,14 +2971,14 @@
         <v>2</v>
       </c>
       <c r="G28" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F28,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="K28" s="3">
@@ -2991,14 +2991,14 @@
         <v>14</v>
       </c>
       <c r="N28" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(M28,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="P28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="Q28" s="5" t="s">
@@ -3014,14 +3014,14 @@
         <v>16</v>
       </c>
       <c r="U28" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="V28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="X28" s="2"/>
@@ -3035,14 +3035,14 @@
         <v>0</v>
       </c>
       <c r="AB28" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA28,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD28" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
     </row>
@@ -3063,14 +3063,14 @@
         <v>9</v>
       </c>
       <c r="G29" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(F29,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="K29" s="3">
@@ -3083,14 +3083,14 @@
         <v>4</v>
       </c>
       <c r="N29" s="3">
-        <f>INDEX($D$4:$E$29, MATCH(M29,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>25</v>
       </c>
       <c r="P29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="Q29" s="2" t="s">
@@ -3106,14 +3106,14 @@
         <v>14</v>
       </c>
       <c r="U29" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>25</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="X29" s="2"/>
@@ -3127,14 +3127,14 @@
         <v>19</v>
       </c>
       <c r="AB29" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(AA29,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="AC29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD29" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
     </row>
@@ -3186,14 +3186,14 @@
         <v>10</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G58" si="5">INDEX($D$4:$E$29, MATCH(F34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G34:G58" si="8">INDEX($D$4:$E$29, MATCH(F34,$E$4:$E$29,0),1)</f>
         <v>10</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34:I59" si="6">INDEX($D$4:$E$29, MATCH(H34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I34:I59" si="9">INDEX($D$4:$E$29, MATCH(H34,$E$4:$E$29,0),1)</f>
         <v>1</v>
       </c>
       <c r="K34" s="3">
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" ref="P34:P59" si="7">INDEX($D$4:$E$29, MATCH(O34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P34:P59" si="10">INDEX($D$4:$E$29, MATCH(O34,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="R34" s="3">
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="17">
-        <f t="shared" ref="W34:W59" si="8">INDEX($D$4:$E$29, MATCH(V34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W34:W59" si="11">INDEX($D$4:$E$29, MATCH(V34,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="X34" s="2" t="s">
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="17">
-        <f t="shared" ref="AD34:AD59" si="9">INDEX($D$4:$E$29, MATCH(AC34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD34:AD59" si="12">INDEX($D$4:$E$29, MATCH(AC34,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3277,14 +3277,14 @@
         <v>12</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="J35" s="5"/>
@@ -3298,14 +3298,14 @@
         <v>9</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" ref="N35:N59" si="10">INDEX($D$4:$E$29, MATCH(M35,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N35:N59" si="13">INDEX($D$4:$E$29, MATCH(M35,$E$4:$E$29,0),1)</f>
         <v>9</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q35" s="5"/>
@@ -3319,14 +3319,14 @@
         <v>3</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" ref="U35:U59" si="11">INDEX($D$4:$E$29, MATCH(T35,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U35:U59" si="14">INDEX($D$4:$E$29, MATCH(T35,$E$4:$E$29,0),1)</f>
         <v>3</v>
       </c>
       <c r="V35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X35" s="5"/>
@@ -3340,14 +3340,14 @@
         <v>17</v>
       </c>
       <c r="AB35" s="4">
-        <f t="shared" ref="AB35:AB59" si="12">INDEX($D$4:$E$29, MATCH(AA35,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB35:AB59" si="15">INDEX($D$4:$E$29, MATCH(AA35,$E$4:$E$29,0),1)</f>
         <v>17</v>
       </c>
       <c r="AC35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -3368,14 +3368,14 @@
         <v>5</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="J36" s="5"/>
@@ -3396,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="Q36" s="5"/>
@@ -3417,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="X36" s="5"/>
@@ -3438,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="AD36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -3459,14 +3459,14 @@
         <v>11</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J37" s="5"/>
@@ -3480,14 +3480,14 @@
         <v>10</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="Q37" s="5"/>
@@ -3501,14 +3501,14 @@
         <v>7</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="V37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="X37" s="5"/>
@@ -3529,7 +3529,7 @@
         <v>3</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -3550,14 +3550,14 @@
         <v>6</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="J38" s="5"/>
@@ -3571,14 +3571,14 @@
         <v>18</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="Q38" s="5"/>
@@ -3592,14 +3592,14 @@
         <v>9</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="V38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="X38" s="5"/>
@@ -3613,14 +3613,14 @@
         <v>16</v>
       </c>
       <c r="AB38" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="AC38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AD38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
     </row>
@@ -3641,14 +3641,14 @@
         <v>3</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="J39" s="5"/>
@@ -3662,14 +3662,14 @@
         <v>8</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="Q39" s="5"/>
@@ -3683,14 +3683,14 @@
         <v>11</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="V39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="X39" s="5"/>
@@ -3704,14 +3704,14 @@
         <v>18</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="AC39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
         <v>7</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="J40" s="5"/>
@@ -3753,14 +3753,14 @@
         <v>17</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="Q40" s="5"/>
@@ -3774,14 +3774,14 @@
         <v>2</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="W40" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="X40" s="5"/>
@@ -3795,14 +3795,14 @@
         <v>11</v>
       </c>
       <c r="AB40" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="AC40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
     </row>
@@ -3823,14 +3823,14 @@
         <v>21</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="J41" s="5" t="s">
@@ -3846,14 +3846,14 @@
         <v>20</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="Q41" s="5"/>
@@ -3867,14 +3867,14 @@
         <v>15</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="X41" s="5"/>
@@ -3888,14 +3888,14 @@
         <v>3</v>
       </c>
       <c r="AB41" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AC41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
     </row>
@@ -3919,14 +3919,14 @@
         <v>25</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="J42" s="5"/>
@@ -3940,14 +3940,14 @@
         <v>23</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="Q42" s="5"/>
@@ -3961,14 +3961,14 @@
         <v>17</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="V42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="X42" s="5"/>
@@ -3982,14 +3982,14 @@
         <v>15</v>
       </c>
       <c r="AB42" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="AC42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD42" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
     </row>
@@ -4010,14 +4010,14 @@
         <v>13</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J43" s="5"/>
@@ -4031,14 +4031,14 @@
         <v>1</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="Q43" s="5"/>
@@ -4052,14 +4052,14 @@
         <v>19</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="V43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W43" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="X43" s="5"/>
@@ -4073,14 +4073,14 @@
         <v>23</v>
       </c>
       <c r="AB43" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="AC43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD43" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
@@ -4101,14 +4101,14 @@
         <v>19</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="J44" s="5"/>
@@ -4122,14 +4122,14 @@
         <v>11</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="Q44" s="5"/>
@@ -4143,14 +4143,14 @@
         <v>23</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="V44" s="9" t="s">
         <v>10</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="X44" s="2" t="s">
@@ -4166,14 +4166,14 @@
         <v>13</v>
       </c>
       <c r="AB44" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="AC44" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AD44" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
     </row>
@@ -4197,14 +4197,14 @@
         <v>14</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="J45" s="5"/>
@@ -4218,14 +4218,14 @@
         <v>7</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="Q45" s="5"/>
@@ -4239,14 +4239,14 @@
         <v>21</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="V45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="X45" s="5"/>
@@ -4260,14 +4260,14 @@
         <v>6</v>
       </c>
       <c r="AB45" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="AC45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD45" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
     </row>
@@ -4288,14 +4288,14 @@
         <v>22</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="J46" s="5"/>
@@ -4309,14 +4309,14 @@
         <v>22</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="Q46" s="5"/>
@@ -4330,14 +4330,14 @@
         <v>25</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="V46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="X46" s="5"/>
@@ -4351,14 +4351,14 @@
         <v>14</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="AC46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AD46" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
@@ -4379,14 +4379,14 @@
         <v>24</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="J47" s="5" t="s">
@@ -4402,14 +4402,14 @@
         <v>19</v>
       </c>
       <c r="N47" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="Q47" s="5" t="s">
@@ -4425,16 +4425,16 @@
         <v>13</v>
       </c>
       <c r="U47" s="6">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W47" s="6">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="V47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W47" s="6">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
       <c r="X47" s="5" t="s">
         <v>36</v>
       </c>
@@ -4448,14 +4448,14 @@
         <v>10</v>
       </c>
       <c r="AB47" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="AC47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
     </row>
@@ -4476,14 +4476,14 @@
         <v>7</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="J48" s="5"/>
@@ -4497,14 +4497,14 @@
         <v>12</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="O48" s="15" t="s">
         <v>14</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="Q48" s="5" t="s">
@@ -4520,14 +4520,14 @@
         <v>24</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="V48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="X48" s="5"/>
@@ -4541,14 +4541,14 @@
         <v>12</v>
       </c>
       <c r="AB48" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="AC48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AD48" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="J49" s="5"/>
@@ -4590,14 +4590,14 @@
         <v>2</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="Q49" s="5"/>
@@ -4611,14 +4611,14 @@
         <v>4</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="V49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="X49" s="5"/>
@@ -4632,14 +4632,14 @@
         <v>8</v>
       </c>
       <c r="AB49" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="AC49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD49" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
     </row>
@@ -4663,14 +4663,14 @@
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="J50" s="5"/>
@@ -4684,14 +4684,14 @@
         <v>16</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="Q50" s="5"/>
@@ -4705,14 +4705,14 @@
         <v>8</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="V50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W50" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="X50" s="5"/>
@@ -4726,14 +4726,14 @@
         <v>4</v>
       </c>
       <c r="AB50" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="AC50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD50" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
@@ -4754,14 +4754,14 @@
         <v>18</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="J51" s="5"/>
@@ -4775,14 +4775,14 @@
         <v>6</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="Q51" s="5"/>
@@ -4796,14 +4796,14 @@
         <v>22</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="V51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="X51" s="5"/>
@@ -4817,14 +4817,14 @@
         <v>1</v>
       </c>
       <c r="AB51" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AC51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD51" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
     </row>
@@ -4845,14 +4845,14 @@
         <v>15</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="J52" s="5"/>
@@ -4866,14 +4866,14 @@
         <v>25</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="Q52" s="5"/>
@@ -4887,14 +4887,14 @@
         <v>6</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="V52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="W52" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="X52" s="5"/>
@@ -4908,14 +4908,14 @@
         <v>5</v>
       </c>
       <c r="AB52" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD52" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
     </row>
@@ -4936,14 +4936,14 @@
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="J53" s="5" t="s">
@@ -4959,14 +4959,14 @@
         <v>13</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="O53" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P53" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="Q53" s="2" t="s">
@@ -4982,14 +4982,14 @@
         <v>0</v>
       </c>
       <c r="U53" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="X53" s="5"/>
@@ -5003,14 +5003,14 @@
         <v>25</v>
       </c>
       <c r="AB53" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="AC53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD53" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
     </row>
@@ -5034,14 +5034,14 @@
         <v>8</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="J54" s="5"/>
@@ -5055,14 +5055,14 @@
         <v>15</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="O54" s="9" t="s">
         <v>20</v>
       </c>
       <c r="P54" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="Q54" s="2" t="s">
@@ -5078,14 +5078,14 @@
         <v>10</v>
       </c>
       <c r="U54" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="V54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="X54" s="5"/>
@@ -5099,14 +5099,14 @@
         <v>2</v>
       </c>
       <c r="AB54" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="AC54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD54" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
     </row>
@@ -5127,14 +5127,14 @@
         <v>1</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="J55" s="5"/>
@@ -5148,14 +5148,14 @@
         <v>24</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="Q55" s="5"/>
@@ -5169,14 +5169,14 @@
         <v>12</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="V55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="X55" s="5"/>
@@ -5190,14 +5190,14 @@
         <v>22</v>
       </c>
       <c r="AB55" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="AC55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD55" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
     </row>
@@ -5218,14 +5218,14 @@
         <v>17</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="J56" s="5"/>
@@ -5239,14 +5239,14 @@
         <v>5</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="Q56" s="5"/>
@@ -5260,14 +5260,14 @@
         <v>20</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="V56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="X56" s="5"/>
@@ -5281,14 +5281,14 @@
         <v>21</v>
       </c>
       <c r="AB56" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="AC56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD56" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
     </row>
@@ -5309,14 +5309,14 @@
         <v>2</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="J57" s="5"/>
@@ -5330,14 +5330,14 @@
         <v>21</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="Q57" s="5"/>
@@ -5351,14 +5351,14 @@
         <v>18</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="V57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W57" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="X57" s="5"/>
@@ -5372,14 +5372,14 @@
         <v>9</v>
       </c>
       <c r="AB57" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="AC57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD57" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
     </row>
@@ -5400,14 +5400,14 @@
         <v>9</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="J58" s="5" t="s">
@@ -5423,14 +5423,14 @@
         <v>14</v>
       </c>
       <c r="N58" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P58" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="Q58" s="5"/>
@@ -5444,14 +5444,14 @@
         <v>16</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="V58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="W58" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="X58" s="5" t="s">
@@ -5467,14 +5467,14 @@
         <v>0</v>
       </c>
       <c r="AB58" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD58" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J59" s="5"/>
@@ -5516,14 +5516,14 @@
         <v>4</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="Q59" s="5"/>
@@ -5537,14 +5537,14 @@
         <v>14</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="V59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W59" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="X59" s="5"/>
@@ -5558,14 +5558,14 @@
         <v>19</v>
       </c>
       <c r="AB59" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="AC59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD59" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
     </row>
@@ -5618,14 +5618,14 @@
         <v>12</v>
       </c>
       <c r="G64" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G64:G89" si="16">INDEX($D$4:$E$29, MATCH(F64,$E$4:$E$29,0),1)</f>
         <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" ref="I64:I89" si="13">INDEX($D$4:$E$29, MATCH(H64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I64:I89" si="17">INDEX($D$4:$E$29, MATCH(H64,$E$4:$E$29,0),1)</f>
         <v>2</v>
       </c>
       <c r="J64" s="5"/>
@@ -5639,14 +5639,14 @@
         <v>9</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" ref="N64:N88" si="14">INDEX($D$4:$E$29, MATCH(M64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N64:N88" si="18">INDEX($D$4:$E$29, MATCH(M64,$E$4:$E$29,0),1)</f>
         <v>9</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" ref="P64:P89" si="15">INDEX($D$4:$E$29, MATCH(O64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P64:P89" si="19">INDEX($D$4:$E$29, MATCH(O64,$E$4:$E$29,0),1)</f>
         <v>1</v>
       </c>
       <c r="Q64" s="5"/>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="4">
-        <f t="shared" ref="W64:W89" si="16">INDEX($D$4:$E$29, MATCH(V64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W64:W89" si="20">INDEX($D$4:$E$29, MATCH(V64,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="X64" s="5"/>
@@ -5688,7 +5688,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="4">
-        <f t="shared" ref="AD64:AD89" si="17">INDEX($D$4:$E$29, MATCH(AC64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD64:AD89" si="21">INDEX($D$4:$E$29, MATCH(AC64,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5710,14 +5710,14 @@
         <v>5</v>
       </c>
       <c r="G65" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F65,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="J65" s="5"/>
@@ -5738,7 +5738,7 @@
         <v>2</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="Q65" s="5"/>
@@ -5752,14 +5752,14 @@
         <v>3</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" ref="U65:U89" si="18">INDEX($D$4:$E$29, MATCH(T65,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U65:U89" si="22">INDEX($D$4:$E$29, MATCH(T65,$E$4:$E$29,0),1)</f>
         <v>3</v>
       </c>
       <c r="V65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W65" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="X65" s="5"/>
@@ -5773,14 +5773,14 @@
         <v>17</v>
       </c>
       <c r="AB65" s="4">
-        <f t="shared" ref="AB65:AB89" si="19">INDEX($D$4:$E$29, MATCH(AA65,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB65:AB89" si="23">INDEX($D$4:$E$29, MATCH(AA65,$E$4:$E$29,0),1)</f>
         <v>17</v>
       </c>
       <c r="AC65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD65" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -5802,14 +5802,14 @@
         <v>11</v>
       </c>
       <c r="G66" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F66,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="J66" s="5"/>
@@ -5823,14 +5823,14 @@
         <v>10</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="Q66" s="5"/>
@@ -5851,7 +5851,7 @@
         <v>2</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="X66" s="5"/>
@@ -5872,7 +5872,7 @@
         <v>2</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
     </row>
@@ -5894,14 +5894,14 @@
         <v>6</v>
       </c>
       <c r="G67" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F67,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J67" s="5"/>
@@ -5915,14 +5915,14 @@
         <v>18</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="Q67" s="5"/>
@@ -5936,14 +5936,14 @@
         <v>7</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="V67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W67" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="X67" s="5"/>
@@ -5964,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="AD67" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
     </row>
@@ -5986,14 +5986,14 @@
         <v>3</v>
       </c>
       <c r="G68" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F68,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="J68" s="5"/>
@@ -6007,14 +6007,14 @@
         <v>8</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="Q68" s="5"/>
@@ -6028,14 +6028,14 @@
         <v>9</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="V68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W68" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="X68" s="5"/>
@@ -6049,14 +6049,14 @@
         <v>16</v>
       </c>
       <c r="AB68" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="AC68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AD68" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
     </row>
@@ -6078,14 +6078,14 @@
         <v>16</v>
       </c>
       <c r="G69" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F69,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="J69" s="5"/>
@@ -6099,14 +6099,14 @@
         <v>17</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="P69" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="Q69" s="5" t="s">
@@ -6122,14 +6122,14 @@
         <v>11</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="V69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W69" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="X69" s="5"/>
@@ -6143,14 +6143,14 @@
         <v>18</v>
       </c>
       <c r="AB69" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="AC69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD69" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
     </row>
@@ -6172,14 +6172,14 @@
         <v>21</v>
       </c>
       <c r="G70" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F70,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="J70" s="5"/>
@@ -6193,14 +6193,14 @@
         <v>20</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="Q70" s="5"/>
@@ -6214,14 +6214,14 @@
         <v>2</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="V70" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W70" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="X70" s="5" t="s">
@@ -6237,14 +6237,14 @@
         <v>11</v>
       </c>
       <c r="AB70" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="AC70" s="9" t="s">
         <v>6</v>
       </c>
       <c r="AD70" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
     </row>
@@ -6266,14 +6266,14 @@
         <v>25</v>
       </c>
       <c r="G71" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F71,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="J71" s="5"/>
@@ -6287,14 +6287,14 @@
         <v>23</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="Q71" s="5"/>
@@ -6308,14 +6308,14 @@
         <v>15</v>
       </c>
       <c r="U71" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="V71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W71" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="X71" s="5"/>
@@ -6329,14 +6329,14 @@
         <v>3</v>
       </c>
       <c r="AB71" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="AC71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD71" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
     </row>
@@ -6360,14 +6360,14 @@
         <v>13</v>
       </c>
       <c r="G72" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(F72,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="J72" s="5"/>
@@ -6381,14 +6381,14 @@
         <v>1</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="Q72" s="5"/>
@@ -6402,14 +6402,14 @@
         <v>17</v>
       </c>
       <c r="U72" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="V72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W72" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="X72" s="5"/>
@@ -6423,14 +6423,14 @@
         <v>15</v>
       </c>
       <c r="AB72" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="AC72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD72" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -6452,14 +6452,14 @@
         <v>19</v>
       </c>
       <c r="G73" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F73,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="J73" s="5"/>
@@ -6473,14 +6473,14 @@
         <v>11</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="Q73" s="5"/>
@@ -6494,14 +6494,14 @@
         <v>19</v>
       </c>
       <c r="U73" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="V73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W73" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="X73" s="5"/>
@@ -6515,14 +6515,14 @@
         <v>23</v>
       </c>
       <c r="AB73" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="AC73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD73" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
     </row>
@@ -6546,14 +6546,14 @@
         <v>14</v>
       </c>
       <c r="G74" s="9">
-        <f>INDEX($D$4:$E$29, MATCH(F74,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="J74" s="5"/>
@@ -6567,14 +6567,14 @@
         <v>7</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="O74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="Q74" s="5"/>
@@ -6588,14 +6588,14 @@
         <v>23</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="V74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="X74" s="5"/>
@@ -6609,14 +6609,14 @@
         <v>13</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="AC74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
     </row>
@@ -6638,14 +6638,14 @@
         <v>22</v>
       </c>
       <c r="G75" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F75,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I75" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="J75" s="5" t="s">
@@ -6661,14 +6661,14 @@
         <v>22</v>
       </c>
       <c r="N75" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="O75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="Q75" s="5"/>
@@ -6682,14 +6682,14 @@
         <v>21</v>
       </c>
       <c r="U75" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="V75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="W75" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="X75" s="5" t="s">
@@ -6705,14 +6705,14 @@
         <v>6</v>
       </c>
       <c r="AB75" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="AC75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD75" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
     </row>
@@ -6734,14 +6734,14 @@
         <v>24</v>
       </c>
       <c r="G76" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F76,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="J76" s="5" t="s">
@@ -6757,14 +6757,14 @@
         <v>19</v>
       </c>
       <c r="N76" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="O76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="Q76" s="5"/>
@@ -6778,14 +6778,14 @@
         <v>25</v>
       </c>
       <c r="U76" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="V76" s="15" t="s">
         <v>12</v>
       </c>
       <c r="W76" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="X76" s="5" t="s">
@@ -6801,14 +6801,14 @@
         <v>14</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="AC76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AD76" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
     </row>
@@ -6830,14 +6830,14 @@
         <v>7</v>
       </c>
       <c r="G77" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F77,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="J77" s="5"/>
@@ -6851,14 +6851,14 @@
         <v>12</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="O77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="Q77" s="5"/>
@@ -6872,14 +6872,14 @@
         <v>13</v>
       </c>
       <c r="U77" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="V77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="W77" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="X77" s="5"/>
@@ -6893,14 +6893,14 @@
         <v>10</v>
       </c>
       <c r="AB77" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="AC77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD77" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
     </row>
@@ -6922,14 +6922,14 @@
         <v>23</v>
       </c>
       <c r="G78" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F78,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="J78" s="5"/>
@@ -6943,14 +6943,14 @@
         <v>2</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="O78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="Q78" s="5"/>
@@ -6964,14 +6964,14 @@
         <v>24</v>
       </c>
       <c r="U78" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="V78" s="17" t="s">
         <v>14</v>
       </c>
       <c r="W78" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="X78" s="5" t="s">
@@ -6987,14 +6987,14 @@
         <v>12</v>
       </c>
       <c r="AB78" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="AC78" s="17" t="s">
         <v>14</v>
       </c>
       <c r="AD78" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
     </row>
@@ -7016,14 +7016,14 @@
         <v>20</v>
       </c>
       <c r="G79" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F79,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="J79" s="5"/>
@@ -7037,14 +7037,14 @@
         <v>16</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="O79" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="Q79" s="5"/>
@@ -7058,14 +7058,14 @@
         <v>4</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="V79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W79" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="X79" s="5"/>
@@ -7079,14 +7079,14 @@
         <v>8</v>
       </c>
       <c r="AB79" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="AC79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD79" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
     </row>
@@ -7110,14 +7110,14 @@
         <v>18</v>
       </c>
       <c r="G80" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(F80,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="J80" s="5" t="s">
@@ -7133,14 +7133,14 @@
         <v>6</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="O80" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="Q80" s="5"/>
@@ -7154,14 +7154,14 @@
         <v>8</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="V80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="X80" s="5"/>
@@ -7175,14 +7175,14 @@
         <v>4</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="AC80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
     </row>
@@ -7204,14 +7204,14 @@
         <v>15</v>
       </c>
       <c r="G81" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F81,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="J81" s="5"/>
@@ -7225,14 +7225,14 @@
         <v>25</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="O81" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P81" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="Q81" s="5"/>
@@ -7246,14 +7246,14 @@
         <v>22</v>
       </c>
       <c r="U81" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="V81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W81" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="X81" s="5"/>
@@ -7267,14 +7267,14 @@
         <v>1</v>
       </c>
       <c r="AB81" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AC81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD81" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
     </row>
@@ -7296,14 +7296,14 @@
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F82,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="J82" s="5"/>
@@ -7317,14 +7317,14 @@
         <v>13</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="O82" s="9" t="s">
         <v>19</v>
       </c>
       <c r="P82" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="Q82" s="5" t="s">
@@ -7340,14 +7340,14 @@
         <v>6</v>
       </c>
       <c r="U82" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="V82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="W82" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="X82" s="5"/>
@@ -7361,14 +7361,14 @@
         <v>5</v>
       </c>
       <c r="AB82" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="AC82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD82" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
     </row>
@@ -7390,14 +7390,14 @@
         <v>8</v>
       </c>
       <c r="G83" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F83,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="J83" s="5"/>
@@ -7411,14 +7411,14 @@
         <v>15</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P83" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="Q83" s="5"/>
@@ -7432,14 +7432,14 @@
         <v>0</v>
       </c>
       <c r="U83" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W83" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="X83" s="5"/>
@@ -7453,14 +7453,14 @@
         <v>25</v>
       </c>
       <c r="AB83" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="AC83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD83" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
     </row>
@@ -7484,14 +7484,14 @@
         <v>1</v>
       </c>
       <c r="G84" s="17">
-        <f>INDEX($D$4:$E$29, MATCH(F84,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="J84" s="5"/>
@@ -7505,14 +7505,14 @@
         <v>24</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="O84" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="Q84" s="5"/>
@@ -7526,14 +7526,14 @@
         <v>10</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="V84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="X84" s="5"/>
@@ -7547,14 +7547,14 @@
         <v>2</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="AC84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
@@ -7576,14 +7576,14 @@
         <v>17</v>
       </c>
       <c r="G85" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F85,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="J85" s="5"/>
@@ -7597,14 +7597,14 @@
         <v>5</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="O85" s="15" t="s">
         <v>22</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="Q85" s="5" t="s">
@@ -7620,14 +7620,14 @@
         <v>12</v>
       </c>
       <c r="U85" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="V85" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W85" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="X85" s="5"/>
@@ -7641,14 +7641,14 @@
         <v>22</v>
       </c>
       <c r="AB85" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="AC85" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD85" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -7670,14 +7670,14 @@
         <v>2</v>
       </c>
       <c r="G86" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F86,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="J86" s="5"/>
@@ -7691,14 +7691,14 @@
         <v>21</v>
       </c>
       <c r="N86" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="O86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P86" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="Q86" s="5"/>
@@ -7712,14 +7712,14 @@
         <v>20</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="V86" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="X86" s="5"/>
@@ -7733,14 +7733,14 @@
         <v>21</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="AC86" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD86" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
     </row>
@@ -7762,14 +7762,14 @@
         <v>9</v>
       </c>
       <c r="G87" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F87,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="J87" s="5"/>
@@ -7783,14 +7783,14 @@
         <v>14</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="O87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P87" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="Q87" s="5"/>
@@ -7804,14 +7804,14 @@
         <v>18</v>
       </c>
       <c r="U87" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="V87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W87" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="X87" s="5"/>
@@ -7825,14 +7825,14 @@
         <v>9</v>
       </c>
       <c r="AB87" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="AC87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD87" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
     </row>
@@ -7854,14 +7854,14 @@
         <v>4</v>
       </c>
       <c r="G88" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F88,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="J88" s="5"/>
@@ -7875,14 +7875,14 @@
         <v>4</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="O88" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P88" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="Q88" s="5"/>
@@ -7896,14 +7896,14 @@
         <v>16</v>
       </c>
       <c r="U88" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="V88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W88" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="X88" s="5"/>
@@ -7917,14 +7917,14 @@
         <v>0</v>
       </c>
       <c r="AB88" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD88" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
     </row>
@@ -7946,14 +7946,14 @@
         <v>10</v>
       </c>
       <c r="G89" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F89,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="H89" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I89" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="J89" s="5" t="s">
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q89" s="5" t="s">
@@ -7992,14 +7992,14 @@
         <v>14</v>
       </c>
       <c r="U89" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="V89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W89" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="X89" s="5"/>
@@ -8013,14 +8013,14 @@
         <v>19</v>
       </c>
       <c r="AB89" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="AC89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD89" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
     </row>
@@ -8110,14 +8110,14 @@
         <v>13</v>
       </c>
       <c r="G95" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G95:G120" si="24">INDEX($D$4:$E$29, MATCH(F95,$E$4:$E$29,0),1)</f>
         <v>13</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I95" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I95:I120" si="25">INDEX($D$4:$E$29, MATCH(H95,$E$4:$E$29,0),1)</f>
         <v>10</v>
       </c>
       <c r="J95" s="5"/>
@@ -8131,14 +8131,14 @@
         <v>5</v>
       </c>
       <c r="N95" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N95:N120" si="26">INDEX($D$4:$E$29, MATCH(M95,$E$4:$E$29,0),1)</f>
         <v>5</v>
       </c>
       <c r="O95" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P95" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P95:P120" si="27">INDEX($D$4:$E$29, MATCH(O95,$E$4:$E$29,0),1)</f>
         <v>22</v>
       </c>
       <c r="Q95" s="5"/>
@@ -8152,14 +8152,14 @@
         <v>5</v>
       </c>
       <c r="U95" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U95:U120" si="28">INDEX($D$4:$E$29, MATCH(T95,$E$4:$E$29,0),1)</f>
         <v>5</v>
       </c>
       <c r="V95" s="4" t="s">
         <v>2</v>
       </c>
       <c r="W95" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W95:W120" si="29">INDEX($D$4:$E$29, MATCH(V95,$E$4:$E$29,0),1)</f>
         <v>2</v>
       </c>
       <c r="X95" s="5"/>
@@ -8180,7 +8180,7 @@
         <v>0</v>
       </c>
       <c r="AD95" s="4">
-        <f t="shared" ref="AD95:AD120" si="20">INDEX($D$4:$E$29, MATCH(AC95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD95:AD120" si="30">INDEX($D$4:$E$29, MATCH(AC95,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8202,14 +8202,14 @@
         <v>19</v>
       </c>
       <c r="G96" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F96,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H96,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="J96" s="5"/>
@@ -8223,14 +8223,14 @@
         <v>21</v>
       </c>
       <c r="N96" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M96,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="O96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="P96" s="9">
-        <f>INDEX($D$4:$E$29, MATCH(O96,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="Q96" s="20" t="s">
@@ -8246,14 +8246,14 @@
         <v>7</v>
       </c>
       <c r="U96" s="9">
-        <f>INDEX($D$4:$E$29, MATCH(T96,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="V96" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W96" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V96,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="X96" s="5"/>
@@ -8267,14 +8267,14 @@
         <v>17</v>
       </c>
       <c r="AB96" s="4">
-        <f t="shared" ref="AB96:AB120" si="21">INDEX($D$4:$E$29, MATCH(AA96,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB96:AB120" si="31">INDEX($D$4:$E$29, MATCH(AA96,$E$4:$E$29,0),1)</f>
         <v>17</v>
       </c>
       <c r="AC96" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD96" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
     </row>
@@ -8296,14 +8296,14 @@
         <v>14</v>
       </c>
       <c r="G97" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F97,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I97" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H97,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="J97" s="5"/>
@@ -8317,14 +8317,14 @@
         <v>14</v>
       </c>
       <c r="N97" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M97,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="O97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P97" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O97,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>24</v>
       </c>
       <c r="Q97" s="5"/>
@@ -8338,14 +8338,14 @@
         <v>9</v>
       </c>
       <c r="U97" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T97,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="V97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W97" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V97,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="X97" s="5"/>
@@ -8366,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="AD97" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
     </row>
@@ -8390,14 +8390,14 @@
         <v>22</v>
       </c>
       <c r="G98" s="9">
-        <f>INDEX($D$4:$E$29, MATCH(F98,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H98,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="J98" s="5"/>
@@ -8411,14 +8411,14 @@
         <v>4</v>
       </c>
       <c r="N98" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M98,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="O98" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P98" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O98,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="Q98" s="5"/>
@@ -8432,14 +8432,14 @@
         <v>11</v>
       </c>
       <c r="U98" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T98,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="V98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W98" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V98,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="X98" s="5"/>
@@ -8460,7 +8460,7 @@
         <v>3</v>
       </c>
       <c r="AD98" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
     </row>
@@ -8482,14 +8482,14 @@
         <v>24</v>
       </c>
       <c r="G99" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F99,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I99" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H99,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="J99" s="5"/>
@@ -8503,14 +8503,14 @@
         <v>0</v>
       </c>
       <c r="N99" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M99,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O99" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P99" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O99,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q99" s="5"/>
@@ -8524,14 +8524,14 @@
         <v>2</v>
       </c>
       <c r="U99" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T99,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="V99" s="4" t="s">
         <v>6</v>
       </c>
       <c r="W99" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V99,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="X99" s="5"/>
@@ -8545,14 +8545,14 @@
         <v>16</v>
       </c>
       <c r="AB99" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="AC99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AD99" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
     </row>
@@ -8574,14 +8574,14 @@
         <v>7</v>
       </c>
       <c r="G100" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F100,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I100" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H100,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="J100" s="5"/>
@@ -8595,14 +8595,14 @@
         <v>9</v>
       </c>
       <c r="N100" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M100,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="O100" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P100" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O100,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="Q100" s="5"/>
@@ -8616,14 +8616,14 @@
         <v>15</v>
       </c>
       <c r="U100" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T100,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="V100" s="9" t="s">
         <v>7</v>
       </c>
       <c r="W100" s="9">
-        <f>INDEX($D$4:$E$29, MATCH(V100,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="X100" s="5" t="s">
@@ -8639,14 +8639,14 @@
         <v>18</v>
       </c>
       <c r="AB100" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="AC100" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AD100" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
     </row>
@@ -8668,14 +8668,14 @@
         <v>23</v>
       </c>
       <c r="G101" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F101,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I101" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H101,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="J101" s="5"/>
@@ -8689,14 +8689,14 @@
         <v>3</v>
       </c>
       <c r="N101" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M101,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="O101" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P101" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O101,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="Q101" s="5"/>
@@ -8710,14 +8710,14 @@
         <v>17</v>
       </c>
       <c r="U101" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T101,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="V101" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W101" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V101,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="X101" s="5"/>
@@ -8731,14 +8731,14 @@
         <v>11</v>
       </c>
       <c r="AB101" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="AC101" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD101" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
     </row>
@@ -8760,14 +8760,14 @@
         <v>20</v>
       </c>
       <c r="G102" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F102,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H102,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="J102" s="5"/>
@@ -8781,14 +8781,14 @@
         <v>10</v>
       </c>
       <c r="N102" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M102,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="O102" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O102,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="Q102" s="5"/>
@@ -8802,14 +8802,14 @@
         <v>19</v>
       </c>
       <c r="U102" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T102,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="V102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W102" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V102,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="X102" s="5"/>
@@ -8823,14 +8823,14 @@
         <v>3</v>
       </c>
       <c r="AB102" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AC102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD102" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
     </row>
@@ -8854,14 +8854,14 @@
         <v>18</v>
       </c>
       <c r="G103" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(F103,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="H103" s="15" t="s">
         <v>18</v>
       </c>
       <c r="I103" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(H103,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="J103" s="20" t="s">
@@ -8877,14 +8877,14 @@
         <v>18</v>
       </c>
       <c r="N103" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(M103,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="O103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P103" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O103,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="Q103" s="5"/>
@@ -8898,14 +8898,14 @@
         <v>23</v>
       </c>
       <c r="U103" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T103,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="V103" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W103" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V103,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="X103" s="5"/>
@@ -8919,14 +8919,14 @@
         <v>15</v>
       </c>
       <c r="AB103" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="AC103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD103" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
     </row>
@@ -8948,14 +8948,14 @@
         <v>15</v>
       </c>
       <c r="G104" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F104,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I104" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H104,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="J104" s="5"/>
@@ -8969,14 +8969,14 @@
         <v>8</v>
       </c>
       <c r="N104" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M104,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="O104" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P104" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O104,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="Q104" s="5"/>
@@ -8990,14 +8990,14 @@
         <v>21</v>
       </c>
       <c r="U104" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T104,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="V104" s="4" t="s">
         <v>11</v>
       </c>
       <c r="W104" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V104,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="X104" s="5"/>
@@ -9011,14 +9011,14 @@
         <v>23</v>
       </c>
       <c r="AB104" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>23</v>
       </c>
       <c r="AC104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD104" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
     </row>
@@ -9040,14 +9040,14 @@
         <v>0</v>
       </c>
       <c r="G105" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F105,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I105" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H105,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="J105" s="5"/>
@@ -9061,14 +9061,14 @@
         <v>17</v>
       </c>
       <c r="N105" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M105,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="O105" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P105" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O105,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="Q105" s="5"/>
@@ -9082,14 +9082,14 @@
         <v>25</v>
       </c>
       <c r="U105" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T105,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
       <c r="V105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="W105" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V105,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="X105" s="5"/>
@@ -9103,14 +9103,14 @@
         <v>13</v>
       </c>
       <c r="AB105" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="AC105" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AD105" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
     </row>
@@ -9132,14 +9132,14 @@
         <v>8</v>
       </c>
       <c r="G106" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F106,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I106" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H106,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="J106" s="5"/>
@@ -9153,14 +9153,14 @@
         <v>20</v>
       </c>
       <c r="N106" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M106,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="O106" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P106" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O106,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="Q106" s="5"/>
@@ -9174,14 +9174,14 @@
         <v>13</v>
       </c>
       <c r="U106" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T106,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="V106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="W106" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V106,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="X106" s="5"/>
@@ -9195,14 +9195,14 @@
         <v>6</v>
       </c>
       <c r="AB106" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="AC106" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD106" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
     </row>
@@ -9226,14 +9226,14 @@
         <v>1</v>
       </c>
       <c r="G107" s="17">
-        <f>INDEX($D$4:$E$29, MATCH(F107,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I107" s="9">
-        <f>INDEX($D$4:$E$29, MATCH(H107,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="J107" s="20" t="s">
@@ -9249,14 +9249,14 @@
         <v>23</v>
       </c>
       <c r="N107" s="9">
-        <f>INDEX($D$4:$E$29, MATCH(M107,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="O107" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P107" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O107,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="Q107" s="5"/>
@@ -9270,14 +9270,14 @@
         <v>24</v>
       </c>
       <c r="U107" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T107,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="V107" s="17" t="s">
         <v>14</v>
       </c>
       <c r="W107" s="17">
-        <f>INDEX($D$4:$E$29, MATCH(V107,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
       <c r="X107" s="5" t="s">
@@ -9293,14 +9293,14 @@
         <v>14</v>
       </c>
       <c r="AB107" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="AC107" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AD107" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
     </row>
@@ -9322,14 +9322,14 @@
         <v>17</v>
       </c>
       <c r="G108" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F108,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I108" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H108,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="J108" s="5"/>
@@ -9343,14 +9343,14 @@
         <v>1</v>
       </c>
       <c r="N108" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M108,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="O108" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P108" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O108,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="Q108" s="5"/>
@@ -9364,14 +9364,14 @@
         <v>4</v>
       </c>
       <c r="U108" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T108,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="V108" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W108" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V108,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="X108" s="5"/>
@@ -9385,14 +9385,14 @@
         <v>10</v>
       </c>
       <c r="AB108" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="AC108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD108" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
     </row>
@@ -9414,14 +9414,14 @@
         <v>2</v>
       </c>
       <c r="G109" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F109,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I109" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H109,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="J109" s="5"/>
@@ -9435,14 +9435,14 @@
         <v>11</v>
       </c>
       <c r="N109" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M109,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="O109" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P109" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O109,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="Q109" s="5"/>
@@ -9456,14 +9456,14 @@
         <v>8</v>
       </c>
       <c r="U109" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T109,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="V109" s="15" t="s">
         <v>16</v>
       </c>
       <c r="W109" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(V109,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="X109" s="20" t="s">
@@ -9479,14 +9479,14 @@
         <v>12</v>
       </c>
       <c r="AB109" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="AC109" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AD109" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
     </row>
@@ -9508,14 +9508,14 @@
         <v>9</v>
       </c>
       <c r="G110" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F110,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I110" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H110,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="J110" s="5"/>
@@ -9529,14 +9529,14 @@
         <v>7</v>
       </c>
       <c r="N110" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M110,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="O110" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P110" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O110,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="Q110" s="5"/>
@@ -9550,14 +9550,14 @@
         <v>22</v>
       </c>
       <c r="U110" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T110,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
       <c r="V110" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W110" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V110,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="X110" s="5"/>
@@ -9571,14 +9571,14 @@
         <v>8</v>
       </c>
       <c r="AB110" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="AC110" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD110" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
     </row>
@@ -9602,14 +9602,14 @@
         <v>4</v>
       </c>
       <c r="G111" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(F111,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I111" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H111,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J111" s="5"/>
@@ -9623,14 +9623,14 @@
         <v>22</v>
       </c>
       <c r="N111" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M111,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="O111" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P111" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O111,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="Q111" s="5"/>
@@ -9644,14 +9644,14 @@
         <v>6</v>
       </c>
       <c r="U111" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T111,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="V111" s="4" t="s">
         <v>18</v>
       </c>
       <c r="W111" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V111,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="X111" s="5"/>
@@ -9665,14 +9665,14 @@
         <v>4</v>
       </c>
       <c r="AB111" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AC111" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD111" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
     </row>
@@ -9694,14 +9694,14 @@
         <v>10</v>
       </c>
       <c r="G112" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F112,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="H112" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I112" s="17">
-        <f>INDEX($D$4:$E$29, MATCH(H112,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="J112" s="20" t="s">
@@ -9717,14 +9717,14 @@
         <v>19</v>
       </c>
       <c r="N112" s="17">
-        <f>INDEX($D$4:$E$29, MATCH(M112,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="O112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P112" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O112,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="Q112" s="5"/>
@@ -9738,14 +9738,14 @@
         <v>0</v>
       </c>
       <c r="U112" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T112,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V112" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W112" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V112,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="X112" s="5"/>
@@ -9759,14 +9759,14 @@
         <v>1</v>
       </c>
       <c r="AB112" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="AC112" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD112" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
     </row>
@@ -9788,14 +9788,14 @@
         <v>12</v>
       </c>
       <c r="G113" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F113,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I113" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H113,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="J113" s="5"/>
@@ -9809,14 +9809,14 @@
         <v>12</v>
       </c>
       <c r="N113" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M113,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="O113" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P113" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O113,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="Q113" s="5"/>
@@ -9830,14 +9830,14 @@
         <v>10</v>
       </c>
       <c r="U113" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T113,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="V113" s="6" t="s">
         <v>20</v>
       </c>
       <c r="W113" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(V113,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="X113" s="20" t="s">
@@ -9853,14 +9853,14 @@
         <v>5</v>
       </c>
       <c r="AB113" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="AC113" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD113" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
     </row>
@@ -9882,14 +9882,14 @@
         <v>5</v>
       </c>
       <c r="G114" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F114,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I114" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H114,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="J114" s="5"/>
@@ -9903,14 +9903,14 @@
         <v>2</v>
       </c>
       <c r="N114" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M114,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="O114" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P114" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O114,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="Q114" s="5"/>
@@ -9924,14 +9924,14 @@
         <v>12</v>
       </c>
       <c r="U114" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T114,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="V114" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W114" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V114,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>21</v>
       </c>
       <c r="X114" s="5"/>
@@ -9945,14 +9945,14 @@
         <v>25</v>
       </c>
       <c r="AB114" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>25</v>
       </c>
       <c r="AC114" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD114" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
     </row>
@@ -9974,14 +9974,14 @@
         <v>11</v>
       </c>
       <c r="G115" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F115,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I115" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(H115,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="J115" s="20" t="s">
@@ -9997,14 +9997,14 @@
         <v>16</v>
       </c>
       <c r="N115" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(M115,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="O115" s="6" t="s">
         <v>16</v>
       </c>
       <c r="P115" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(O115,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="Q115" s="20" t="s">
@@ -10020,14 +10020,14 @@
         <v>20</v>
       </c>
       <c r="U115" s="6">
-        <f>INDEX($D$4:$E$29, MATCH(T115,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="V115" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W115" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V115,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="X115" s="5"/>
@@ -10041,14 +10041,14 @@
         <v>2</v>
       </c>
       <c r="AB115" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AC115" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD115" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
     </row>
@@ -10070,14 +10070,14 @@
         <v>6</v>
       </c>
       <c r="G116" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F116,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I116" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H116,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="J116" s="5"/>
@@ -10091,14 +10091,14 @@
         <v>6</v>
       </c>
       <c r="N116" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M116,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="O116" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P116" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O116,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
       <c r="Q116" s="5"/>
@@ -10112,14 +10112,14 @@
         <v>18</v>
       </c>
       <c r="U116" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T116,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="V116" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W116" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V116,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>23</v>
       </c>
       <c r="X116" s="5"/>
@@ -10133,14 +10133,14 @@
         <v>22</v>
       </c>
       <c r="AB116" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>22</v>
       </c>
       <c r="AC116" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD116" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
     </row>
@@ -10162,14 +10162,14 @@
         <v>3</v>
       </c>
       <c r="G117" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F117,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I117" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H117,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="J117" s="5"/>
@@ -10183,14 +10183,14 @@
         <v>25</v>
       </c>
       <c r="N117" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M117,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="O117" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P117" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(O117,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="Q117" s="20" t="s">
@@ -10206,14 +10206,14 @@
         <v>16</v>
       </c>
       <c r="U117" s="15">
-        <f>INDEX($D$4:$E$29, MATCH(T117,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="V117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W117" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V117,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>24</v>
       </c>
       <c r="X117" s="5"/>
@@ -10227,14 +10227,14 @@
         <v>21</v>
       </c>
       <c r="AB117" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>21</v>
       </c>
       <c r="AC117" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD117" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
     </row>
@@ -10256,14 +10256,14 @@
         <v>16</v>
       </c>
       <c r="G118" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F118,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I118" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H118,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="J118" s="5"/>
@@ -10277,14 +10277,14 @@
         <v>13</v>
       </c>
       <c r="N118" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M118,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="O118" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P118" s="17">
-        <f>INDEX($D$4:$E$29, MATCH(O118,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="Q118" s="20" t="s">
@@ -10300,14 +10300,14 @@
         <v>14</v>
       </c>
       <c r="U118" s="17">
-        <f>INDEX($D$4:$E$29, MATCH(T118,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="V118" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W118" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V118,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="X118" s="5"/>
@@ -10321,14 +10321,14 @@
         <v>9</v>
       </c>
       <c r="AB118" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="AC118" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD118" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
     </row>
@@ -10350,14 +10350,14 @@
         <v>21</v>
       </c>
       <c r="G119" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F119,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I119" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H119,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="J119" s="5"/>
@@ -10371,14 +10371,14 @@
         <v>15</v>
       </c>
       <c r="N119" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M119,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="O119" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P119" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O119,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
       <c r="Q119" s="5"/>
@@ -10392,14 +10392,14 @@
         <v>1</v>
       </c>
       <c r="U119" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T119,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="V119" s="4" t="s">
         <v>0</v>
       </c>
       <c r="W119" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V119,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="X119" s="5"/>
@@ -10413,14 +10413,14 @@
         <v>0</v>
       </c>
       <c r="AB119" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AC119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD119" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>24</v>
       </c>
     </row>
@@ -10442,14 +10442,14 @@
         <v>25</v>
       </c>
       <c r="G120" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(F120,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I120" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(H120,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="J120" s="5"/>
@@ -10463,14 +10463,14 @@
         <v>24</v>
       </c>
       <c r="N120" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(M120,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="O120" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P120" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(O120,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="Q120" s="5"/>
@@ -10484,14 +10484,14 @@
         <v>3</v>
       </c>
       <c r="U120" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(T120,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="V120" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W120" s="4">
-        <f>INDEX($D$4:$E$29, MATCH(V120,$E$4:$E$29,0),1)</f>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="X120" s="5"/>
@@ -10505,14 +10505,14 @@
         <v>19</v>
       </c>
       <c r="AB120" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="AC120" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD120" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
     </row>

--- a/rotor-ring-map.xlsx
+++ b/rotor-ring-map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pat.hearps/Documents/DataScienceStudy/ENIGMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CCC12-D3E3-1049-A8CB-7C379AE762B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9291E40D-8385-ED44-A714-5DE6FB83BE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{A35B3064-C88D-FE40-A178-BB01BEFC4815}"/>
+    <workbookView xWindow="420" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{A35B3064-C88D-FE40-A178-BB01BEFC4815}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="70">
   <si>
     <t>A</t>
   </si>
@@ -233,6 +235,15 @@
   <si>
     <t>26 + 0 - 10 = 16</t>
   </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -383,6 +394,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEB03A6-2973-F843-A284-ADB6AB420C22}">
-  <dimension ref="A2:AD120"/>
+  <dimension ref="A2:AK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,14 +735,14 @@
     <col min="31" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:30" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="17" x14ac:dyDescent="0.25">
       <c r="J2" s="14" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
@@ -744,8 +758,21 @@
       <c r="AA3" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AG3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK3" s="22" t="str">
+        <f>_xlfn.CONCAT(AI4:AI29)</f>
+        <v>GVURPWXIQJANZLYKMEOFBSTCHD</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -833,8 +860,23 @@
         <f t="shared" ref="AD4:AD29" si="6">INDEX($D$4:$E$29, MATCH(AC4,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="str">
+        <f>INDEX(F$4:F$29,MATCH(AF4,E$4:E$29),1)</f>
+        <v>E</v>
+      </c>
+      <c r="AH4" s="2" t="str">
+        <f>INDEX(M$4:M$29,MATCH(AG4,L$4:L$29),1)</f>
+        <v>S</v>
+      </c>
+      <c r="AI4" s="2" t="str">
+        <f>INDEX(T$4:T$29,MATCH(AH4,S$4:S$29),1)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -922,8 +964,24 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2" t="str">
+        <f t="shared" ref="AG5:AG29" si="8">INDEX(F$4:F$29,MATCH(AF5,E$4:E$29),1)</f>
+        <v>K</v>
+      </c>
+      <c r="AH5" s="2" t="str">
+        <f t="shared" ref="AH5:AH29" si="9">INDEX(M$4:M$29,MATCH(AG5,L$4:L$29),1)</f>
+        <v>L</v>
+      </c>
+      <c r="AI5" s="2" t="str">
+        <f t="shared" ref="AI5:AI29" si="10">INDEX(T$4:T$29,MATCH(AH5,S$4:S$29),1)</f>
+        <v>V</v>
+      </c>
+      <c r="AK5" s="22"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1011,8 +1069,23 @@
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>M</v>
+      </c>
+      <c r="AH6" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>W</v>
+      </c>
+      <c r="AI6" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>U</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1100,8 +1173,23 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>F</v>
+      </c>
+      <c r="AH7" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>I</v>
+      </c>
+      <c r="AI7" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>R</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1118,14 +1206,14 @@
         <v>11</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f>INDEX($D$4:$E$29, MATCH(F8,$E$4:$E$29,0),1)</f>
         <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f>INDEX($D$4:$E$29, MATCH(H8,$E$4:$E$29,0),1)</f>
         <v>4</v>
       </c>
       <c r="K8" s="3">
@@ -1191,8 +1279,23 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG8" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>L</v>
+      </c>
+      <c r="AH8" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>H</v>
+      </c>
+      <c r="AI8" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1283,8 +1386,23 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>G</v>
+      </c>
+      <c r="AH9" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>R</v>
+      </c>
+      <c r="AI9" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1375,8 +1493,23 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>D</v>
+      </c>
+      <c r="AH10" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>K</v>
+      </c>
+      <c r="AI10" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1467,8 +1600,23 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG11" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Q</v>
+      </c>
+      <c r="AH11" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Q</v>
+      </c>
+      <c r="AI11" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>I</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -1561,8 +1709,23 @@
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>V</v>
+      </c>
+      <c r="AH12" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Y</v>
+      </c>
+      <c r="AI12" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>Q</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1653,8 +1816,23 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG13" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Z</v>
+      </c>
+      <c r="AH13" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>E</v>
+      </c>
+      <c r="AI13" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>J</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1745,8 +1923,23 @@
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>N</v>
+      </c>
+      <c r="AH14" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>T</v>
+      </c>
+      <c r="AI14" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1837,8 +2030,23 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG15" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>T</v>
+      </c>
+      <c r="AH15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>N</v>
+      </c>
+      <c r="AI15" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1931,8 +2139,23 @@
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>O</v>
+      </c>
+      <c r="AH16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>M</v>
+      </c>
+      <c r="AI16" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -2023,8 +2246,23 @@
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG17" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>W</v>
+      </c>
+      <c r="AH17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>F</v>
+      </c>
+      <c r="AI17" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>L</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -2117,8 +2355,23 @@
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>Y</v>
+      </c>
+      <c r="AH18" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>O</v>
+      </c>
+      <c r="AI18" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -2211,8 +2464,23 @@
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG19" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>H</v>
+      </c>
+      <c r="AH19" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>U</v>
+      </c>
+      <c r="AI19" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>K</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -2307,8 +2575,23 @@
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG20" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>X</v>
+      </c>
+      <c r="AH20" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>V</v>
+      </c>
+      <c r="AI20" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>M</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>17</v>
       </c>
@@ -2401,8 +2684,23 @@
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG21" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>U</v>
+      </c>
+      <c r="AH21" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>P</v>
+      </c>
+      <c r="AI21" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -2496,8 +2794,23 @@
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG22" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>S</v>
+      </c>
+      <c r="AH22" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>Z</v>
+      </c>
+      <c r="AI22" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>O</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -2585,8 +2898,23 @@
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG23" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>P</v>
+      </c>
+      <c r="AH23" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>C</v>
+      </c>
+      <c r="AI23" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -2677,8 +3005,23 @@
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG24" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+      <c r="AH24" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="AI24" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -2772,8 +3115,23 @@
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG25" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>I</v>
+      </c>
+      <c r="AH25" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>X</v>
+      </c>
+      <c r="AI25" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>S</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -2861,8 +3219,23 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG26" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>B</v>
+      </c>
+      <c r="AH26" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>J</v>
+      </c>
+      <c r="AI26" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>T</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -2953,8 +3326,23 @@
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG27" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>R</v>
+      </c>
+      <c r="AH27" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>G</v>
+      </c>
+      <c r="AI27" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -3045,8 +3433,23 @@
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG28" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>C</v>
+      </c>
+      <c r="AH28" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>D</v>
+      </c>
+      <c r="AI28" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>H</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -3137,8 +3540,23 @@
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG29" s="2" t="str">
+        <f t="shared" si="8"/>
+        <v>J</v>
+      </c>
+      <c r="AH29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>B</v>
+      </c>
+      <c r="AI29" s="2" t="str">
+        <f t="shared" si="10"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="J32" s="14" t="s">
         <v>31</v>
       </c>
@@ -3186,14 +3604,14 @@
         <v>10</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G58" si="8">INDEX($D$4:$E$29, MATCH(F34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G34:G58" si="11">INDEX($D$4:$E$29, MATCH(F34,$E$4:$E$29,0),1)</f>
         <v>10</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34:I59" si="9">INDEX($D$4:$E$29, MATCH(H34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I34:I59" si="12">INDEX($D$4:$E$29, MATCH(H34,$E$4:$E$29,0),1)</f>
         <v>1</v>
       </c>
       <c r="K34" s="3">
@@ -3213,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" ref="P34:P59" si="10">INDEX($D$4:$E$29, MATCH(O34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P34:P59" si="13">INDEX($D$4:$E$29, MATCH(O34,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="R34" s="3">
@@ -3233,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="17">
-        <f t="shared" ref="W34:W59" si="11">INDEX($D$4:$E$29, MATCH(V34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W34:W59" si="14">INDEX($D$4:$E$29, MATCH(V34,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="X34" s="2" t="s">
@@ -3256,7 +3674,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="17">
-        <f t="shared" ref="AD34:AD59" si="12">INDEX($D$4:$E$29, MATCH(AC34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD34:AD59" si="15">INDEX($D$4:$E$29, MATCH(AC34,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3277,14 +3695,14 @@
         <v>12</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="J35" s="5"/>
@@ -3298,14 +3716,14 @@
         <v>9</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" ref="N35:N59" si="13">INDEX($D$4:$E$29, MATCH(M35,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N35:N59" si="16">INDEX($D$4:$E$29, MATCH(M35,$E$4:$E$29,0),1)</f>
         <v>9</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q35" s="5"/>
@@ -3319,14 +3737,14 @@
         <v>3</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" ref="U35:U59" si="14">INDEX($D$4:$E$29, MATCH(T35,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U35:U59" si="17">INDEX($D$4:$E$29, MATCH(T35,$E$4:$E$29,0),1)</f>
         <v>3</v>
       </c>
       <c r="V35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="X35" s="5"/>
@@ -3340,14 +3758,14 @@
         <v>17</v>
       </c>
       <c r="AB35" s="4">
-        <f t="shared" ref="AB35:AB59" si="15">INDEX($D$4:$E$29, MATCH(AA35,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB35:AB59" si="18">INDEX($D$4:$E$29, MATCH(AA35,$E$4:$E$29,0),1)</f>
         <v>17</v>
       </c>
       <c r="AC35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -3368,14 +3786,14 @@
         <v>5</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="J36" s="5"/>
@@ -3396,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="Q36" s="5"/>
@@ -3417,7 +3835,7 @@
         <v>2</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="X36" s="5"/>
@@ -3438,7 +3856,7 @@
         <v>2</v>
       </c>
       <c r="AD36" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
@@ -3459,14 +3877,14 @@
         <v>11</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="J37" s="5"/>
@@ -3480,14 +3898,14 @@
         <v>10</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="Q37" s="5"/>
@@ -3501,14 +3919,14 @@
         <v>7</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="V37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="X37" s="5"/>
@@ -3529,7 +3947,7 @@
         <v>3</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
@@ -3550,14 +3968,14 @@
         <v>6</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="J38" s="5"/>
@@ -3571,14 +3989,14 @@
         <v>18</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="Q38" s="5"/>
@@ -3592,14 +4010,14 @@
         <v>9</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="V38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W38" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="X38" s="5"/>
@@ -3613,14 +4031,14 @@
         <v>16</v>
       </c>
       <c r="AB38" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="AC38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AD38" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
@@ -3641,14 +4059,14 @@
         <v>3</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="J39" s="5"/>
@@ -3662,14 +4080,14 @@
         <v>8</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="Q39" s="5"/>
@@ -3683,14 +4101,14 @@
         <v>11</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="V39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="X39" s="5"/>
@@ -3704,14 +4122,14 @@
         <v>18</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="AC39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
     </row>
@@ -3739,7 +4157,7 @@
         <v>7</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="J40" s="5"/>
@@ -3753,14 +4171,14 @@
         <v>17</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="Q40" s="5"/>
@@ -3774,14 +4192,14 @@
         <v>2</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="W40" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="X40" s="5"/>
@@ -3795,14 +4213,14 @@
         <v>11</v>
       </c>
       <c r="AB40" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="AC40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD40" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
@@ -3823,14 +4241,14 @@
         <v>21</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="J41" s="5" t="s">
@@ -3846,14 +4264,14 @@
         <v>20</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q41" s="5"/>
@@ -3867,14 +4285,14 @@
         <v>15</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="X41" s="5"/>
@@ -3888,14 +4306,14 @@
         <v>3</v>
       </c>
       <c r="AB41" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AC41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD41" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
     </row>
@@ -3919,14 +4337,14 @@
         <v>25</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="J42" s="5"/>
@@ -3940,14 +4358,14 @@
         <v>23</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="Q42" s="5"/>
@@ -3961,14 +4379,14 @@
         <v>17</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="V42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="X42" s="5"/>
@@ -3982,14 +4400,14 @@
         <v>15</v>
       </c>
       <c r="AB42" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="AC42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD42" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
@@ -4010,14 +4428,14 @@
         <v>13</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="J43" s="5"/>
@@ -4031,14 +4449,14 @@
         <v>1</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="Q43" s="5"/>
@@ -4052,14 +4470,14 @@
         <v>19</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="V43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="X43" s="5"/>
@@ -4073,14 +4491,14 @@
         <v>23</v>
       </c>
       <c r="AB43" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="AC43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD43" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
@@ -4101,14 +4519,14 @@
         <v>19</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="J44" s="5"/>
@@ -4122,14 +4540,14 @@
         <v>11</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="Q44" s="5"/>
@@ -4143,14 +4561,14 @@
         <v>23</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="V44" s="9" t="s">
         <v>10</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="X44" s="2" t="s">
@@ -4166,14 +4584,14 @@
         <v>13</v>
       </c>
       <c r="AB44" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="AC44" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AD44" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
     </row>
@@ -4197,14 +4615,14 @@
         <v>14</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="J45" s="5"/>
@@ -4218,14 +4636,14 @@
         <v>7</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="Q45" s="5"/>
@@ -4239,14 +4657,14 @@
         <v>21</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="V45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="X45" s="5"/>
@@ -4260,14 +4678,14 @@
         <v>6</v>
       </c>
       <c r="AB45" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="AC45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD45" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
     </row>
@@ -4288,14 +4706,14 @@
         <v>22</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="J46" s="5"/>
@@ -4309,14 +4727,14 @@
         <v>22</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="Q46" s="5"/>
@@ -4330,14 +4748,14 @@
         <v>25</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="V46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="X46" s="5"/>
@@ -4351,14 +4769,14 @@
         <v>14</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="AC46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AD46" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
     </row>
@@ -4379,14 +4797,14 @@
         <v>24</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="J47" s="5" t="s">
@@ -4402,14 +4820,14 @@
         <v>19</v>
       </c>
       <c r="N47" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="Q47" s="5" t="s">
@@ -4425,16 +4843,16 @@
         <v>13</v>
       </c>
       <c r="U47" s="6">
+        <f t="shared" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W47" s="6">
         <f t="shared" si="14"/>
         <v>13</v>
       </c>
-      <c r="V47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W47" s="6">
-        <f t="shared" si="11"/>
-        <v>13</v>
-      </c>
       <c r="X47" s="5" t="s">
         <v>36</v>
       </c>
@@ -4448,14 +4866,14 @@
         <v>10</v>
       </c>
       <c r="AB47" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="AC47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
     </row>
@@ -4476,14 +4894,14 @@
         <v>7</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="J48" s="5"/>
@@ -4497,14 +4915,14 @@
         <v>12</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="O48" s="15" t="s">
         <v>14</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q48" s="5" t="s">
@@ -4520,14 +4938,14 @@
         <v>24</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="V48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="X48" s="5"/>
@@ -4541,14 +4959,14 @@
         <v>12</v>
       </c>
       <c r="AB48" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="AC48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AD48" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
     </row>
@@ -4576,7 +4994,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="J49" s="5"/>
@@ -4590,14 +5008,14 @@
         <v>2</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="Q49" s="5"/>
@@ -4611,14 +5029,14 @@
         <v>4</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="V49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="X49" s="5"/>
@@ -4632,14 +5050,14 @@
         <v>8</v>
       </c>
       <c r="AB49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="AC49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD49" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
     </row>
@@ -4663,14 +5081,14 @@
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J50" s="5"/>
@@ -4684,14 +5102,14 @@
         <v>16</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="Q50" s="5"/>
@@ -4705,14 +5123,14 @@
         <v>8</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="V50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W50" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="X50" s="5"/>
@@ -4726,14 +5144,14 @@
         <v>4</v>
       </c>
       <c r="AB50" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="AC50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD50" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
     </row>
@@ -4754,14 +5172,14 @@
         <v>18</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="J51" s="5"/>
@@ -4775,14 +5193,14 @@
         <v>6</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="Q51" s="5"/>
@@ -4796,14 +5214,14 @@
         <v>22</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="V51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W51" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="X51" s="5"/>
@@ -4817,14 +5235,14 @@
         <v>1</v>
       </c>
       <c r="AB51" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AC51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD51" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
     </row>
@@ -4845,14 +5263,14 @@
         <v>15</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="J52" s="5"/>
@@ -4866,14 +5284,14 @@
         <v>25</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="Q52" s="5"/>
@@ -4887,14 +5305,14 @@
         <v>6</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="V52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="W52" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="X52" s="5"/>
@@ -4908,14 +5326,14 @@
         <v>5</v>
       </c>
       <c r="AB52" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="AC52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD52" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
     </row>
@@ -4936,14 +5354,14 @@
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="J53" s="5" t="s">
@@ -4959,14 +5377,14 @@
         <v>13</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="O53" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P53" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="Q53" s="2" t="s">
@@ -4982,14 +5400,14 @@
         <v>0</v>
       </c>
       <c r="U53" s="17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W53" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="X53" s="5"/>
@@ -5003,14 +5421,14 @@
         <v>25</v>
       </c>
       <c r="AB53" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="AC53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD53" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
     </row>
@@ -5034,14 +5452,14 @@
         <v>8</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="J54" s="5"/>
@@ -5055,14 +5473,14 @@
         <v>15</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="O54" s="9" t="s">
         <v>20</v>
       </c>
       <c r="P54" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="Q54" s="2" t="s">
@@ -5078,14 +5496,14 @@
         <v>10</v>
       </c>
       <c r="U54" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="V54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="X54" s="5"/>
@@ -5099,14 +5517,14 @@
         <v>2</v>
       </c>
       <c r="AB54" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AC54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD54" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
     </row>
@@ -5127,14 +5545,14 @@
         <v>1</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="J55" s="5"/>
@@ -5148,14 +5566,14 @@
         <v>24</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="Q55" s="5"/>
@@ -5169,14 +5587,14 @@
         <v>12</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="V55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W55" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="X55" s="5"/>
@@ -5190,14 +5608,14 @@
         <v>22</v>
       </c>
       <c r="AB55" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="AC55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD55" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
     </row>
@@ -5218,14 +5636,14 @@
         <v>17</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>23</v>
       </c>
       <c r="J56" s="5"/>
@@ -5239,14 +5657,14 @@
         <v>5</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="Q56" s="5"/>
@@ -5260,14 +5678,14 @@
         <v>20</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="V56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="X56" s="5"/>
@@ -5281,14 +5699,14 @@
         <v>21</v>
       </c>
       <c r="AB56" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="AC56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD56" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
     </row>
@@ -5309,14 +5727,14 @@
         <v>2</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="J57" s="5"/>
@@ -5330,14 +5748,14 @@
         <v>21</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="Q57" s="5"/>
@@ -5351,14 +5769,14 @@
         <v>18</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="V57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W57" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>23</v>
       </c>
       <c r="X57" s="5"/>
@@ -5372,14 +5790,14 @@
         <v>9</v>
       </c>
       <c r="AB57" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="AC57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD57" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
     </row>
@@ -5400,14 +5818,14 @@
         <v>9</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>25</v>
       </c>
       <c r="J58" s="5" t="s">
@@ -5423,14 +5841,14 @@
         <v>14</v>
       </c>
       <c r="N58" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P58" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="Q58" s="5"/>
@@ -5444,14 +5862,14 @@
         <v>16</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="V58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="W58" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="X58" s="5" t="s">
@@ -5467,14 +5885,14 @@
         <v>0</v>
       </c>
       <c r="AB58" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD58" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
     </row>
@@ -5502,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J59" s="5"/>
@@ -5516,14 +5934,14 @@
         <v>4</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25</v>
       </c>
       <c r="Q59" s="5"/>
@@ -5537,14 +5955,14 @@
         <v>14</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="V59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W59" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="X59" s="5"/>
@@ -5558,14 +5976,14 @@
         <v>19</v>
       </c>
       <c r="AB59" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="AC59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD59" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
     </row>
@@ -5618,14 +6036,14 @@
         <v>12</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" ref="G64:G89" si="16">INDEX($D$4:$E$29, MATCH(F64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G64:G89" si="19">INDEX($D$4:$E$29, MATCH(F64,$E$4:$E$29,0),1)</f>
         <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" ref="I64:I89" si="17">INDEX($D$4:$E$29, MATCH(H64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I64:I89" si="20">INDEX($D$4:$E$29, MATCH(H64,$E$4:$E$29,0),1)</f>
         <v>2</v>
       </c>
       <c r="J64" s="5"/>
@@ -5639,14 +6057,14 @@
         <v>9</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" ref="N64:N88" si="18">INDEX($D$4:$E$29, MATCH(M64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N64:N88" si="21">INDEX($D$4:$E$29, MATCH(M64,$E$4:$E$29,0),1)</f>
         <v>9</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" ref="P64:P89" si="19">INDEX($D$4:$E$29, MATCH(O64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P64:P89" si="22">INDEX($D$4:$E$29, MATCH(O64,$E$4:$E$29,0),1)</f>
         <v>1</v>
       </c>
       <c r="Q64" s="5"/>
@@ -5667,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="4">
-        <f t="shared" ref="W64:W89" si="20">INDEX($D$4:$E$29, MATCH(V64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W64:W89" si="23">INDEX($D$4:$E$29, MATCH(V64,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="X64" s="5"/>
@@ -5688,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="4">
-        <f t="shared" ref="AD64:AD89" si="21">INDEX($D$4:$E$29, MATCH(AC64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD64:AD89" si="24">INDEX($D$4:$E$29, MATCH(AC64,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -5710,14 +6128,14 @@
         <v>5</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="J65" s="5"/>
@@ -5738,7 +6156,7 @@
         <v>2</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="Q65" s="5"/>
@@ -5752,14 +6170,14 @@
         <v>3</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" ref="U65:U89" si="22">INDEX($D$4:$E$29, MATCH(T65,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U65:U89" si="25">INDEX($D$4:$E$29, MATCH(T65,$E$4:$E$29,0),1)</f>
         <v>3</v>
       </c>
       <c r="V65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W65" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="X65" s="5"/>
@@ -5773,14 +6191,14 @@
         <v>17</v>
       </c>
       <c r="AB65" s="4">
-        <f t="shared" ref="AB65:AB89" si="23">INDEX($D$4:$E$29, MATCH(AA65,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB65:AB89" si="26">INDEX($D$4:$E$29, MATCH(AA65,$E$4:$E$29,0),1)</f>
         <v>17</v>
       </c>
       <c r="AC65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD65" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -5802,14 +6220,14 @@
         <v>11</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="J66" s="5"/>
@@ -5823,14 +6241,14 @@
         <v>10</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="Q66" s="5"/>
@@ -5851,7 +6269,7 @@
         <v>2</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="X66" s="5"/>
@@ -5872,7 +6290,7 @@
         <v>2</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
     </row>
@@ -5894,14 +6312,14 @@
         <v>6</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="J67" s="5"/>
@@ -5915,14 +6333,14 @@
         <v>18</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="Q67" s="5"/>
@@ -5936,14 +6354,14 @@
         <v>7</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="V67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W67" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="X67" s="5"/>
@@ -5964,7 +6382,7 @@
         <v>3</v>
       </c>
       <c r="AD67" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
     </row>
@@ -5986,14 +6404,14 @@
         <v>3</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="J68" s="5"/>
@@ -6007,14 +6425,14 @@
         <v>8</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="Q68" s="5"/>
@@ -6028,14 +6446,14 @@
         <v>9</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="V68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W68" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="X68" s="5"/>
@@ -6049,14 +6467,14 @@
         <v>16</v>
       </c>
       <c r="AB68" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="AC68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AD68" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
     </row>
@@ -6078,14 +6496,14 @@
         <v>16</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="J69" s="5"/>
@@ -6099,14 +6517,14 @@
         <v>17</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="P69" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="Q69" s="5" t="s">
@@ -6122,14 +6540,14 @@
         <v>11</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="V69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W69" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="X69" s="5"/>
@@ -6143,14 +6561,14 @@
         <v>18</v>
       </c>
       <c r="AB69" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="AC69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD69" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
     </row>
@@ -6172,14 +6590,14 @@
         <v>21</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="J70" s="5"/>
@@ -6193,14 +6611,14 @@
         <v>20</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="Q70" s="5"/>
@@ -6214,14 +6632,14 @@
         <v>2</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="V70" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W70" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="X70" s="5" t="s">
@@ -6237,14 +6655,14 @@
         <v>11</v>
       </c>
       <c r="AB70" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="AC70" s="9" t="s">
         <v>6</v>
       </c>
       <c r="AD70" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
     </row>
@@ -6266,14 +6684,14 @@
         <v>25</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="J71" s="5"/>
@@ -6287,14 +6705,14 @@
         <v>23</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="Q71" s="5"/>
@@ -6308,14 +6726,14 @@
         <v>15</v>
       </c>
       <c r="U71" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="V71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W71" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="X71" s="5"/>
@@ -6329,14 +6747,14 @@
         <v>3</v>
       </c>
       <c r="AB71" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="AC71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD71" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
     </row>
@@ -6360,14 +6778,14 @@
         <v>13</v>
       </c>
       <c r="G72" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="J72" s="5"/>
@@ -6381,14 +6799,14 @@
         <v>1</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="Q72" s="5"/>
@@ -6402,14 +6820,14 @@
         <v>17</v>
       </c>
       <c r="U72" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="V72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W72" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="X72" s="5"/>
@@ -6423,14 +6841,14 @@
         <v>15</v>
       </c>
       <c r="AB72" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="AC72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD72" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
     </row>
@@ -6452,14 +6870,14 @@
         <v>19</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="J73" s="5"/>
@@ -6473,14 +6891,14 @@
         <v>11</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="Q73" s="5"/>
@@ -6494,14 +6912,14 @@
         <v>19</v>
       </c>
       <c r="U73" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="V73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W73" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="X73" s="5"/>
@@ -6515,14 +6933,14 @@
         <v>23</v>
       </c>
       <c r="AB73" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="AC73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD73" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>9</v>
       </c>
     </row>
@@ -6546,14 +6964,14 @@
         <v>14</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="J74" s="5"/>
@@ -6567,14 +6985,14 @@
         <v>7</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="O74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="Q74" s="5"/>
@@ -6588,14 +7006,14 @@
         <v>23</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="V74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="X74" s="5"/>
@@ -6609,14 +7027,14 @@
         <v>13</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="AC74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
     </row>
@@ -6638,14 +7056,14 @@
         <v>22</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I75" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="J75" s="5" t="s">
@@ -6661,14 +7079,14 @@
         <v>22</v>
       </c>
       <c r="N75" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="O75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="Q75" s="5"/>
@@ -6682,14 +7100,14 @@
         <v>21</v>
       </c>
       <c r="U75" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="V75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="W75" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="X75" s="5" t="s">
@@ -6705,14 +7123,14 @@
         <v>6</v>
       </c>
       <c r="AB75" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="AC75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD75" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
     </row>
@@ -6734,14 +7152,14 @@
         <v>24</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="J76" s="5" t="s">
@@ -6757,14 +7175,14 @@
         <v>19</v>
       </c>
       <c r="N76" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="O76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="Q76" s="5"/>
@@ -6778,14 +7196,14 @@
         <v>25</v>
       </c>
       <c r="U76" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="V76" s="15" t="s">
         <v>12</v>
       </c>
       <c r="W76" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="X76" s="5" t="s">
@@ -6801,14 +7219,14 @@
         <v>14</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="AC76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AD76" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
     </row>
@@ -6830,14 +7248,14 @@
         <v>7</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="J77" s="5"/>
@@ -6851,14 +7269,14 @@
         <v>12</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="O77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="Q77" s="5"/>
@@ -6872,14 +7290,14 @@
         <v>13</v>
       </c>
       <c r="U77" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="V77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="W77" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="X77" s="5"/>
@@ -6893,14 +7311,14 @@
         <v>10</v>
       </c>
       <c r="AB77" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="AC77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD77" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
     </row>
@@ -6922,14 +7340,14 @@
         <v>23</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="J78" s="5"/>
@@ -6943,14 +7361,14 @@
         <v>2</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="O78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="Q78" s="5"/>
@@ -6964,14 +7382,14 @@
         <v>24</v>
       </c>
       <c r="U78" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="V78" s="17" t="s">
         <v>14</v>
       </c>
       <c r="W78" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="X78" s="5" t="s">
@@ -6987,14 +7405,14 @@
         <v>12</v>
       </c>
       <c r="AB78" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="AC78" s="17" t="s">
         <v>14</v>
       </c>
       <c r="AD78" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
     </row>
@@ -7016,14 +7434,14 @@
         <v>20</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="J79" s="5"/>
@@ -7037,14 +7455,14 @@
         <v>16</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="O79" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="Q79" s="5"/>
@@ -7058,14 +7476,14 @@
         <v>4</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="V79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W79" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="X79" s="5"/>
@@ -7079,14 +7497,14 @@
         <v>8</v>
       </c>
       <c r="AB79" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="AC79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD79" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
     </row>
@@ -7110,14 +7528,14 @@
         <v>18</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="J80" s="5" t="s">
@@ -7133,14 +7551,14 @@
         <v>6</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="O80" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="Q80" s="5"/>
@@ -7154,14 +7572,14 @@
         <v>8</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="V80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="X80" s="5"/>
@@ -7175,14 +7593,14 @@
         <v>4</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="AC80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
     </row>
@@ -7204,14 +7622,14 @@
         <v>15</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="J81" s="5"/>
@@ -7225,14 +7643,14 @@
         <v>25</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="O81" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P81" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="Q81" s="5"/>
@@ -7246,14 +7664,14 @@
         <v>22</v>
       </c>
       <c r="U81" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="V81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W81" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="X81" s="5"/>
@@ -7267,14 +7685,14 @@
         <v>1</v>
       </c>
       <c r="AB81" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="AC81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD81" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
     </row>
@@ -7296,14 +7714,14 @@
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="J82" s="5"/>
@@ -7317,14 +7735,14 @@
         <v>13</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="O82" s="9" t="s">
         <v>19</v>
       </c>
       <c r="P82" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="Q82" s="5" t="s">
@@ -7340,14 +7758,14 @@
         <v>6</v>
       </c>
       <c r="U82" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="V82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="W82" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="X82" s="5"/>
@@ -7361,14 +7779,14 @@
         <v>5</v>
       </c>
       <c r="AB82" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="AC82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD82" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
     </row>
@@ -7390,14 +7808,14 @@
         <v>8</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="J83" s="5"/>
@@ -7411,14 +7829,14 @@
         <v>15</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P83" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="Q83" s="5"/>
@@ -7432,14 +7850,14 @@
         <v>0</v>
       </c>
       <c r="U83" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W83" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="X83" s="5"/>
@@ -7453,14 +7871,14 @@
         <v>25</v>
       </c>
       <c r="AB83" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="AC83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD83" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
     </row>
@@ -7484,14 +7902,14 @@
         <v>1</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="J84" s="5"/>
@@ -7505,14 +7923,14 @@
         <v>24</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>24</v>
       </c>
       <c r="O84" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="Q84" s="5"/>
@@ -7526,14 +7944,14 @@
         <v>10</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="V84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="X84" s="5"/>
@@ -7547,14 +7965,14 @@
         <v>2</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="AC84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
     </row>
@@ -7576,14 +7994,14 @@
         <v>17</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="J85" s="5"/>
@@ -7597,14 +8015,14 @@
         <v>5</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="O85" s="15" t="s">
         <v>22</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="Q85" s="5" t="s">
@@ -7620,14 +8038,14 @@
         <v>12</v>
       </c>
       <c r="U85" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="V85" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W85" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="X85" s="5"/>
@@ -7641,14 +8059,14 @@
         <v>22</v>
       </c>
       <c r="AB85" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="AC85" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD85" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
     </row>
@@ -7670,14 +8088,14 @@
         <v>2</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="J86" s="5"/>
@@ -7691,14 +8109,14 @@
         <v>21</v>
       </c>
       <c r="N86" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="O86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P86" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="Q86" s="5"/>
@@ -7712,14 +8130,14 @@
         <v>20</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="V86" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="X86" s="5"/>
@@ -7733,14 +8151,14 @@
         <v>21</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="AC86" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD86" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
     </row>
@@ -7762,14 +8180,14 @@
         <v>9</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="J87" s="5"/>
@@ -7783,14 +8201,14 @@
         <v>14</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="O87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P87" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="Q87" s="5"/>
@@ -7804,14 +8222,14 @@
         <v>18</v>
       </c>
       <c r="U87" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="V87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W87" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="X87" s="5"/>
@@ -7825,14 +8243,14 @@
         <v>9</v>
       </c>
       <c r="AB87" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="AC87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD87" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
     </row>
@@ -7854,14 +8272,14 @@
         <v>4</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J88" s="5"/>
@@ -7875,14 +8293,14 @@
         <v>4</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="O88" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P88" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="Q88" s="5"/>
@@ -7896,14 +8314,14 @@
         <v>16</v>
       </c>
       <c r="U88" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="V88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W88" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="X88" s="5"/>
@@ -7917,14 +8335,14 @@
         <v>0</v>
       </c>
       <c r="AB88" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD88" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
     </row>
@@ -7946,14 +8364,14 @@
         <v>10</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="H89" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I89" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J89" s="5" t="s">
@@ -7976,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q89" s="5" t="s">
@@ -7992,14 +8410,14 @@
         <v>14</v>
       </c>
       <c r="U89" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="V89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W89" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="X89" s="5"/>
@@ -8013,14 +8431,14 @@
         <v>19</v>
       </c>
       <c r="AB89" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="AC89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD89" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
     </row>
@@ -8110,14 +8528,14 @@
         <v>13</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" ref="G95:G120" si="24">INDEX($D$4:$E$29, MATCH(F95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G95:G120" si="27">INDEX($D$4:$E$29, MATCH(F95,$E$4:$E$29,0),1)</f>
         <v>13</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" ref="I95:I120" si="25">INDEX($D$4:$E$29, MATCH(H95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I95:I120" si="28">INDEX($D$4:$E$29, MATCH(H95,$E$4:$E$29,0),1)</f>
         <v>10</v>
       </c>
       <c r="J95" s="5"/>
@@ -8131,14 +8549,14 @@
         <v>5</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" ref="N95:N120" si="26">INDEX($D$4:$E$29, MATCH(M95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N95:N120" si="29">INDEX($D$4:$E$29, MATCH(M95,$E$4:$E$29,0),1)</f>
         <v>5</v>
       </c>
       <c r="O95" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P95" s="4">
-        <f t="shared" ref="P95:P120" si="27">INDEX($D$4:$E$29, MATCH(O95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P95:P120" si="30">INDEX($D$4:$E$29, MATCH(O95,$E$4:$E$29,0),1)</f>
         <v>22</v>
       </c>
       <c r="Q95" s="5"/>
@@ -8152,14 +8570,14 @@
         <v>5</v>
       </c>
       <c r="U95" s="4">
-        <f t="shared" ref="U95:U120" si="28">INDEX($D$4:$E$29, MATCH(T95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U95:U120" si="31">INDEX($D$4:$E$29, MATCH(T95,$E$4:$E$29,0),1)</f>
         <v>5</v>
       </c>
       <c r="V95" s="4" t="s">
         <v>2</v>
       </c>
       <c r="W95" s="4">
-        <f t="shared" ref="W95:W120" si="29">INDEX($D$4:$E$29, MATCH(V95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W95:W120" si="32">INDEX($D$4:$E$29, MATCH(V95,$E$4:$E$29,0),1)</f>
         <v>2</v>
       </c>
       <c r="X95" s="5"/>
@@ -8180,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="AD95" s="4">
-        <f t="shared" ref="AD95:AD120" si="30">INDEX($D$4:$E$29, MATCH(AC95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD95:AD120" si="33">INDEX($D$4:$E$29, MATCH(AC95,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8202,14 +8620,14 @@
         <v>19</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="J96" s="5"/>
@@ -8223,14 +8641,14 @@
         <v>21</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>21</v>
       </c>
       <c r="O96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="P96" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="Q96" s="20" t="s">
@@ -8246,14 +8664,14 @@
         <v>7</v>
       </c>
       <c r="U96" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="V96" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W96" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="X96" s="5"/>
@@ -8267,14 +8685,14 @@
         <v>17</v>
       </c>
       <c r="AB96" s="4">
-        <f t="shared" ref="AB96:AB120" si="31">INDEX($D$4:$E$29, MATCH(AA96,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB96:AB120" si="34">INDEX($D$4:$E$29, MATCH(AA96,$E$4:$E$29,0),1)</f>
         <v>17</v>
       </c>
       <c r="AC96" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD96" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
     </row>
@@ -8296,14 +8714,14 @@
         <v>14</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="J97" s="5"/>
@@ -8317,14 +8735,14 @@
         <v>14</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
       <c r="O97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P97" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>24</v>
       </c>
       <c r="Q97" s="5"/>
@@ -8338,14 +8756,14 @@
         <v>9</v>
       </c>
       <c r="U97" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="V97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W97" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="X97" s="5"/>
@@ -8366,7 +8784,7 @@
         <v>2</v>
       </c>
       <c r="AD97" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
     </row>
@@ -8390,14 +8808,14 @@
         <v>22</v>
       </c>
       <c r="G98" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="J98" s="5"/>
@@ -8411,14 +8829,14 @@
         <v>4</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="O98" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P98" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="Q98" s="5"/>
@@ -8432,14 +8850,14 @@
         <v>11</v>
       </c>
       <c r="U98" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="V98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W98" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="X98" s="5"/>
@@ -8460,7 +8878,7 @@
         <v>3</v>
       </c>
       <c r="AD98" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
     </row>
@@ -8482,14 +8900,14 @@
         <v>24</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>24</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="J99" s="5"/>
@@ -8503,14 +8921,14 @@
         <v>0</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O99" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P99" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q99" s="5"/>
@@ -8524,14 +8942,14 @@
         <v>2</v>
       </c>
       <c r="U99" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="V99" s="4" t="s">
         <v>6</v>
       </c>
       <c r="W99" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="X99" s="5"/>
@@ -8545,14 +8963,14 @@
         <v>16</v>
       </c>
       <c r="AB99" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="AC99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AD99" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
     </row>
@@ -8574,14 +8992,14 @@
         <v>7</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="J100" s="5"/>
@@ -8595,14 +9013,14 @@
         <v>9</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="O100" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P100" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="Q100" s="5"/>
@@ -8616,14 +9034,14 @@
         <v>15</v>
       </c>
       <c r="U100" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="V100" s="9" t="s">
         <v>7</v>
       </c>
       <c r="W100" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="X100" s="5" t="s">
@@ -8639,14 +9057,14 @@
         <v>18</v>
       </c>
       <c r="AB100" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="AC100" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AD100" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
     </row>
@@ -8668,14 +9086,14 @@
         <v>23</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I101" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="J101" s="5"/>
@@ -8689,14 +9107,14 @@
         <v>3</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="O101" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P101" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Q101" s="5"/>
@@ -8710,14 +9128,14 @@
         <v>17</v>
       </c>
       <c r="U101" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="V101" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W101" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="X101" s="5"/>
@@ -8731,14 +9149,14 @@
         <v>11</v>
       </c>
       <c r="AB101" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="AC101" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD101" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
     </row>
@@ -8760,14 +9178,14 @@
         <v>20</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="J102" s="5"/>
@@ -8781,14 +9199,14 @@
         <v>10</v>
       </c>
       <c r="N102" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="O102" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="Q102" s="5"/>
@@ -8802,14 +9220,14 @@
         <v>19</v>
       </c>
       <c r="U102" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="V102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W102" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="X102" s="5"/>
@@ -8823,14 +9241,14 @@
         <v>3</v>
       </c>
       <c r="AB102" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="AC102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD102" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
     </row>
@@ -8854,14 +9272,14 @@
         <v>18</v>
       </c>
       <c r="G103" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="H103" s="15" t="s">
         <v>18</v>
       </c>
       <c r="I103" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="J103" s="20" t="s">
@@ -8877,14 +9295,14 @@
         <v>18</v>
       </c>
       <c r="N103" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="O103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P103" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="Q103" s="5"/>
@@ -8898,14 +9316,14 @@
         <v>23</v>
       </c>
       <c r="U103" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>23</v>
       </c>
       <c r="V103" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W103" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="X103" s="5"/>
@@ -8919,14 +9337,14 @@
         <v>15</v>
       </c>
       <c r="AB103" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="AC103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD103" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
     </row>
@@ -8948,14 +9366,14 @@
         <v>15</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="J104" s="5"/>
@@ -8969,14 +9387,14 @@
         <v>8</v>
       </c>
       <c r="N104" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="O104" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P104" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="Q104" s="5"/>
@@ -8990,14 +9408,14 @@
         <v>21</v>
       </c>
       <c r="U104" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>21</v>
       </c>
       <c r="V104" s="4" t="s">
         <v>11</v>
       </c>
       <c r="W104" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="X104" s="5"/>
@@ -9011,14 +9429,14 @@
         <v>23</v>
       </c>
       <c r="AB104" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>23</v>
       </c>
       <c r="AC104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD104" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
     </row>
@@ -9040,14 +9458,14 @@
         <v>0</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="J105" s="5"/>
@@ -9061,14 +9479,14 @@
         <v>17</v>
       </c>
       <c r="N105" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>17</v>
       </c>
       <c r="O105" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P105" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="Q105" s="5"/>
@@ -9082,14 +9500,14 @@
         <v>25</v>
       </c>
       <c r="U105" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>25</v>
       </c>
       <c r="V105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="W105" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="X105" s="5"/>
@@ -9103,14 +9521,14 @@
         <v>13</v>
       </c>
       <c r="AB105" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="AC105" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AD105" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
     </row>
@@ -9132,14 +9550,14 @@
         <v>8</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="J106" s="5"/>
@@ -9153,14 +9571,14 @@
         <v>20</v>
       </c>
       <c r="N106" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>20</v>
       </c>
       <c r="O106" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P106" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="Q106" s="5"/>
@@ -9174,14 +9592,14 @@
         <v>13</v>
       </c>
       <c r="U106" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="V106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="W106" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="X106" s="5"/>
@@ -9195,14 +9613,14 @@
         <v>6</v>
       </c>
       <c r="AB106" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="AC106" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD106" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
     </row>
@@ -9226,14 +9644,14 @@
         <v>1</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
       <c r="J107" s="20" t="s">
@@ -9249,14 +9667,14 @@
         <v>23</v>
       </c>
       <c r="N107" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>23</v>
       </c>
       <c r="O107" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P107" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="Q107" s="5"/>
@@ -9270,14 +9688,14 @@
         <v>24</v>
       </c>
       <c r="U107" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>24</v>
       </c>
       <c r="V107" s="17" t="s">
         <v>14</v>
       </c>
       <c r="W107" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="X107" s="5" t="s">
@@ -9293,14 +9711,14 @@
         <v>14</v>
       </c>
       <c r="AB107" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="AC107" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AD107" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
     </row>
@@ -9322,14 +9740,14 @@
         <v>17</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="J108" s="5"/>
@@ -9343,14 +9761,14 @@
         <v>1</v>
       </c>
       <c r="N108" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="O108" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P108" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="Q108" s="5"/>
@@ -9364,14 +9782,14 @@
         <v>4</v>
       </c>
       <c r="U108" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="V108" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W108" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>15</v>
       </c>
       <c r="X108" s="5"/>
@@ -9385,14 +9803,14 @@
         <v>10</v>
       </c>
       <c r="AB108" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="AC108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD108" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
     </row>
@@ -9414,14 +9832,14 @@
         <v>2</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="J109" s="5"/>
@@ -9435,14 +9853,14 @@
         <v>11</v>
       </c>
       <c r="N109" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="O109" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P109" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="Q109" s="5"/>
@@ -9456,14 +9874,14 @@
         <v>8</v>
       </c>
       <c r="U109" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="V109" s="15" t="s">
         <v>16</v>
       </c>
       <c r="W109" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="X109" s="20" t="s">
@@ -9479,14 +9897,14 @@
         <v>12</v>
       </c>
       <c r="AB109" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="AC109" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AD109" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
     </row>
@@ -9508,14 +9926,14 @@
         <v>9</v>
       </c>
       <c r="G110" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
       <c r="J110" s="5"/>
@@ -9529,14 +9947,14 @@
         <v>7</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>7</v>
       </c>
       <c r="O110" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P110" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="Q110" s="5"/>
@@ -9550,14 +9968,14 @@
         <v>22</v>
       </c>
       <c r="U110" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>22</v>
       </c>
       <c r="V110" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W110" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>17</v>
       </c>
       <c r="X110" s="5"/>
@@ -9571,14 +9989,14 @@
         <v>8</v>
       </c>
       <c r="AB110" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="AC110" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD110" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
     </row>
@@ -9602,14 +10020,14 @@
         <v>4</v>
       </c>
       <c r="G111" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="J111" s="5"/>
@@ -9623,14 +10041,14 @@
         <v>22</v>
       </c>
       <c r="N111" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="O111" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P111" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="Q111" s="5"/>
@@ -9644,14 +10062,14 @@
         <v>6</v>
       </c>
       <c r="U111" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="V111" s="4" t="s">
         <v>18</v>
       </c>
       <c r="W111" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>18</v>
       </c>
       <c r="X111" s="5"/>
@@ -9665,14 +10083,14 @@
         <v>4</v>
       </c>
       <c r="AB111" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="AC111" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD111" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
     </row>
@@ -9694,14 +10112,14 @@
         <v>10</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="H112" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I112" s="17">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="J112" s="20" t="s">
@@ -9717,14 +10135,14 @@
         <v>19</v>
       </c>
       <c r="N112" s="17">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="O112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P112" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="Q112" s="5"/>
@@ -9738,14 +10156,14 @@
         <v>0</v>
       </c>
       <c r="U112" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V112" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W112" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>19</v>
       </c>
       <c r="X112" s="5"/>
@@ -9759,14 +10177,14 @@
         <v>1</v>
       </c>
       <c r="AB112" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AC112" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD112" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>17</v>
       </c>
     </row>
@@ -9788,14 +10206,14 @@
         <v>12</v>
       </c>
       <c r="G113" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I113" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="J113" s="5"/>
@@ -9809,14 +10227,14 @@
         <v>12</v>
       </c>
       <c r="N113" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="O113" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P113" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="Q113" s="5"/>
@@ -9830,14 +10248,14 @@
         <v>10</v>
       </c>
       <c r="U113" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>10</v>
       </c>
       <c r="V113" s="6" t="s">
         <v>20</v>
       </c>
       <c r="W113" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="X113" s="20" t="s">
@@ -9853,14 +10271,14 @@
         <v>5</v>
       </c>
       <c r="AB113" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="AC113" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD113" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
     </row>
@@ -9882,14 +10300,14 @@
         <v>5</v>
       </c>
       <c r="G114" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I114" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="J114" s="5"/>
@@ -9903,14 +10321,14 @@
         <v>2</v>
       </c>
       <c r="N114" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="O114" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P114" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="Q114" s="5"/>
@@ -9924,14 +10342,14 @@
         <v>12</v>
       </c>
       <c r="U114" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="V114" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W114" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
       <c r="X114" s="5"/>
@@ -9945,14 +10363,14 @@
         <v>25</v>
       </c>
       <c r="AB114" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="AC114" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD114" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>19</v>
       </c>
     </row>
@@ -9974,14 +10392,14 @@
         <v>11</v>
       </c>
       <c r="G115" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I115" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="J115" s="20" t="s">
@@ -9997,14 +10415,14 @@
         <v>16</v>
       </c>
       <c r="N115" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="O115" s="6" t="s">
         <v>16</v>
       </c>
       <c r="P115" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="Q115" s="20" t="s">
@@ -10020,14 +10438,14 @@
         <v>20</v>
       </c>
       <c r="U115" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="V115" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W115" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>22</v>
       </c>
       <c r="X115" s="5"/>
@@ -10041,14 +10459,14 @@
         <v>2</v>
       </c>
       <c r="AB115" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="AC115" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD115" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
     </row>
@@ -10070,14 +10488,14 @@
         <v>6</v>
       </c>
       <c r="G116" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I116" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="J116" s="5"/>
@@ -10091,14 +10509,14 @@
         <v>6</v>
       </c>
       <c r="N116" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="O116" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P116" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="Q116" s="5"/>
@@ -10112,14 +10530,14 @@
         <v>18</v>
       </c>
       <c r="U116" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="V116" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W116" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>23</v>
       </c>
       <c r="X116" s="5"/>
@@ -10133,14 +10551,14 @@
         <v>22</v>
       </c>
       <c r="AB116" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>22</v>
       </c>
       <c r="AC116" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD116" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
     </row>
@@ -10162,14 +10580,14 @@
         <v>3</v>
       </c>
       <c r="G117" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I117" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="J117" s="5"/>
@@ -10183,14 +10601,14 @@
         <v>25</v>
       </c>
       <c r="N117" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="O117" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P117" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
       <c r="Q117" s="20" t="s">
@@ -10206,14 +10624,14 @@
         <v>16</v>
       </c>
       <c r="U117" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="V117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W117" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>24</v>
       </c>
       <c r="X117" s="5"/>
@@ -10227,14 +10645,14 @@
         <v>21</v>
       </c>
       <c r="AB117" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="AC117" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD117" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>22</v>
       </c>
     </row>
@@ -10256,14 +10674,14 @@
         <v>16</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="J118" s="5"/>
@@ -10277,14 +10695,14 @@
         <v>13</v>
       </c>
       <c r="N118" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="O118" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P118" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="Q118" s="20" t="s">
@@ -10300,14 +10718,14 @@
         <v>14</v>
       </c>
       <c r="U118" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="V118" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W118" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>25</v>
       </c>
       <c r="X118" s="5"/>
@@ -10321,14 +10739,14 @@
         <v>9</v>
       </c>
       <c r="AB118" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="AC118" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD118" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
     </row>
@@ -10350,14 +10768,14 @@
         <v>21</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="J119" s="5"/>
@@ -10371,14 +10789,14 @@
         <v>15</v>
       </c>
       <c r="N119" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="O119" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P119" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="Q119" s="5"/>
@@ -10392,14 +10810,14 @@
         <v>1</v>
       </c>
       <c r="U119" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="V119" s="4" t="s">
         <v>0</v>
       </c>
       <c r="W119" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X119" s="5"/>
@@ -10413,14 +10831,14 @@
         <v>0</v>
       </c>
       <c r="AB119" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AC119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD119" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
     </row>
@@ -10442,14 +10860,14 @@
         <v>25</v>
       </c>
       <c r="G120" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I120" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="J120" s="5"/>
@@ -10463,14 +10881,14 @@
         <v>24</v>
       </c>
       <c r="N120" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>24</v>
       </c>
       <c r="O120" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P120" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="Q120" s="5"/>
@@ -10484,14 +10902,14 @@
         <v>3</v>
       </c>
       <c r="U120" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="V120" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W120" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="X120" s="5"/>
@@ -10505,14 +10923,14 @@
         <v>19</v>
       </c>
       <c r="AB120" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>19</v>
       </c>
       <c r="AC120" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD120" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
     </row>

--- a/rotor-ring-map.xlsx
+++ b/rotor-ring-map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pat.hearps/Documents/DataScienceStudy/ENIGMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9291E40D-8385-ED44-A714-5DE6FB83BE0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A69807-4018-8547-8E4C-B74045AF32FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="460" windowWidth="28040" windowHeight="16380" xr2:uid="{A35B3064-C88D-FE40-A178-BB01BEFC4815}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="76">
   <si>
     <t>A</t>
   </si>
@@ -236,20 +236,38 @@
     <t>26 + 0 - 10 = 16</t>
   </si>
   <si>
-    <t>RR</t>
+    <t>II</t>
   </si>
   <si>
-    <t>MR</t>
+    <t>III</t>
   </si>
   <si>
-    <t>LR</t>
+    <t xml:space="preserve">Forward direction: </t>
+  </si>
+  <si>
+    <t>Reverse direction:</t>
+  </si>
+  <si>
+    <t>RR (I)</t>
+  </si>
+  <si>
+    <t>MR (I)</t>
+  </si>
+  <si>
+    <t>LR (III)</t>
+  </si>
+  <si>
+    <t>MR (II)</t>
+  </si>
+  <si>
+    <t>KUXZRTAYHJPNQLSEIDVWCBFGOM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +304,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="American Typewriter"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -332,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -397,6 +421,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEB03A6-2973-F843-A284-ADB6AB420C22}">
-  <dimension ref="A2:AK120"/>
+  <dimension ref="A2:AO120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -735,14 +765,36 @@
     <col min="31" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="17" x14ac:dyDescent="0.25">
+      <c r="F2" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="M2" s="23" t="s">
+        <v>67</v>
+      </c>
       <c r="S2" s="1"/>
+      <c r="T2" s="23" t="s">
+        <v>68</v>
+      </c>
       <c r="AA2" s="1"/>
+      <c r="AG2" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH2" s="22" t="str">
+        <f>_xlfn.CONCAT(AI4:AI29)</f>
+        <v>GVURPWXIQJANZLYKMEOFBSTCHD</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
@@ -759,20 +811,25 @@
         <v>30</v>
       </c>
       <c r="AG3" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AH3" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AI3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK3" s="22" t="str">
-        <f>_xlfn.CONCAT(AI4:AI29)</f>
-        <v>GVURPWXIQJANZLYKMEOFBSTCHD</v>
+        <v>73</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -864,19 +921,34 @@
         <v>0</v>
       </c>
       <c r="AG4" s="2" t="str">
-        <f>INDEX(F$4:F$29,MATCH(AF4,E$4:E$29),1)</f>
+        <f>INDEX(F$4:F$29,MATCH(AF4,E$4:E$29))</f>
         <v>E</v>
       </c>
       <c r="AH4" s="2" t="str">
-        <f>INDEX(M$4:M$29,MATCH(AG4,L$4:L$29),1)</f>
+        <f>INDEX(M$4:M$29,MATCH(AG4,L$4:L$29))</f>
         <v>S</v>
       </c>
       <c r="AI4" s="2" t="str">
-        <f>INDEX(T$4:T$29,MATCH(AH4,S$4:S$29),1)</f>
+        <f>INDEX(T$4:T$29,MATCH(AH4,S$4:S$29))</f>
         <v>G</v>
       </c>
+      <c r="AK4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2" t="str">
+        <f>INDEX(S$4:S$29,MATCH(AK4,T$4:T$29,0))</f>
+        <v>T</v>
+      </c>
+      <c r="AM4" s="2" t="str">
+        <f>INDEX(L$4:L$29,MATCH(AL4,M$4:M$29,0))</f>
+        <v>N</v>
+      </c>
+      <c r="AN4" s="2" t="str">
+        <f>INDEX(E$4:E$29,MATCH(AM4,F$4:F$29,0))</f>
+        <v>K</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -968,20 +1040,34 @@
         <v>1</v>
       </c>
       <c r="AG5" s="2" t="str">
-        <f t="shared" ref="AG5:AG29" si="8">INDEX(F$4:F$29,MATCH(AF5,E$4:E$29),1)</f>
+        <f t="shared" ref="AG5:AG29" si="8">INDEX(F$4:F$29,MATCH(AF5,E$4:E$29))</f>
         <v>K</v>
       </c>
       <c r="AH5" s="2" t="str">
-        <f t="shared" ref="AH5:AH29" si="9">INDEX(M$4:M$29,MATCH(AG5,L$4:L$29),1)</f>
+        <f t="shared" ref="AH5:AH29" si="9">INDEX(M$4:M$29,MATCH(AG5,L$4:L$29))</f>
         <v>L</v>
       </c>
       <c r="AI5" s="2" t="str">
-        <f t="shared" ref="AI5:AI29" si="10">INDEX(T$4:T$29,MATCH(AH5,S$4:S$29),1)</f>
+        <f t="shared" ref="AI5:AI29" si="10">INDEX(T$4:T$29,MATCH(AH5,S$4:S$29))</f>
         <v>V</v>
       </c>
-      <c r="AK5" s="22"/>
+      <c r="AK5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2" t="str">
+        <f t="shared" ref="AL5:AL29" si="11">INDEX(S$4:S$29,MATCH(AK5,T$4:T$29,0))</f>
+        <v>A</v>
+      </c>
+      <c r="AM5" s="2" t="str">
+        <f t="shared" ref="AM5:AM29" si="12">INDEX(L$4:L$29,MATCH(AL5,M$4:M$29,0))</f>
+        <v>A</v>
+      </c>
+      <c r="AN5" s="2" t="str">
+        <f t="shared" ref="AN5:AN29" si="13">INDEX(E$4:E$29,MATCH(AM5,F$4:F$29,0))</f>
+        <v>U</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1045,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="W6" s="3">
-        <f t="shared" si="4"/>
+        <f>INDEX($D$4:$E$29, MATCH(V6,$E$4:$E$29,0),1)</f>
         <v>2</v>
       </c>
       <c r="X6" s="2"/>
@@ -1084,8 +1170,24 @@
         <f t="shared" si="10"/>
         <v>U</v>
       </c>
+      <c r="AK6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>G</v>
+      </c>
+      <c r="AM6" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+      <c r="AN6" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>X</v>
+      </c>
+      <c r="AO6" s="22"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1188,8 +1290,23 @@
         <f t="shared" si="10"/>
         <v>R</v>
       </c>
+      <c r="AK7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL7" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>B</v>
+      </c>
+      <c r="AM7" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="AN7" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Z</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1294,8 +1411,23 @@
         <f t="shared" si="10"/>
         <v>P</v>
       </c>
+      <c r="AK8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>P</v>
+      </c>
+      <c r="AM8" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>U</v>
+      </c>
+      <c r="AN8" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>R</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1401,8 +1533,23 @@
         <f t="shared" si="10"/>
         <v>W</v>
       </c>
+      <c r="AK9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL9" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>C</v>
+      </c>
+      <c r="AM9" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>P</v>
+      </c>
+      <c r="AN9" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>T</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1508,8 +1655,23 @@
         <f t="shared" si="10"/>
         <v>X</v>
       </c>
+      <c r="AK10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL10" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>S</v>
+      </c>
+      <c r="AM10" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>E</v>
+      </c>
+      <c r="AN10" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>A</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1615,8 +1777,23 @@
         <f t="shared" si="10"/>
         <v>I</v>
       </c>
+      <c r="AK11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL11" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>D</v>
+      </c>
+      <c r="AM11" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="AN11" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Y</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -1724,8 +1901,23 @@
         <f t="shared" si="10"/>
         <v>Q</v>
       </c>
+      <c r="AK12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL12" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Q</v>
+      </c>
+      <c r="AM12" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Q</v>
+      </c>
+      <c r="AN12" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>H</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1831,8 +2023,23 @@
         <f t="shared" si="10"/>
         <v>J</v>
       </c>
+      <c r="AK13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL13" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>E</v>
+      </c>
+      <c r="AM13" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Z</v>
+      </c>
+      <c r="AN13" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>J</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1938,8 +2145,23 @@
         <f t="shared" si="10"/>
         <v>A</v>
       </c>
+      <c r="AK14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL14" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>U</v>
+      </c>
+      <c r="AM14" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>H</v>
+      </c>
+      <c r="AN14" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>P</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -2045,8 +2267,23 @@
         <f t="shared" si="10"/>
         <v>N</v>
       </c>
+      <c r="AK15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL15" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>F</v>
+      </c>
+      <c r="AM15" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>W</v>
+      </c>
+      <c r="AN15" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>N</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -2154,8 +2391,23 @@
         <f t="shared" si="10"/>
         <v>Z</v>
       </c>
+      <c r="AK16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL16" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>V</v>
+      </c>
+      <c r="AM16" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>X</v>
+      </c>
+      <c r="AN16" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>Q</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -2261,8 +2513,23 @@
         <f t="shared" si="10"/>
         <v>L</v>
       </c>
+      <c r="AK17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL17" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>N</v>
+      </c>
+      <c r="AM17" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>T</v>
+      </c>
+      <c r="AN17" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>L</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -2370,8 +2637,23 @@
         <f t="shared" si="10"/>
         <v>Y</v>
       </c>
+      <c r="AK18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL18" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Z</v>
+      </c>
+      <c r="AM18" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>S</v>
+      </c>
+      <c r="AN18" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>S</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -2479,8 +2761,23 @@
         <f t="shared" si="10"/>
         <v>K</v>
       </c>
+      <c r="AK19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL19" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>H</v>
+      </c>
+      <c r="AM19" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>L</v>
+      </c>
+      <c r="AN19" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>E</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -2590,8 +2887,23 @@
         <f t="shared" si="10"/>
         <v>M</v>
       </c>
+      <c r="AK20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL20" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>Y</v>
+      </c>
+      <c r="AM20" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>V</v>
+      </c>
+      <c r="AN20" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>I</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="17">
         <v>17</v>
       </c>
@@ -2699,8 +3011,23 @@
         <f t="shared" si="10"/>
         <v>E</v>
       </c>
+      <c r="AK21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL21" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>I</v>
+      </c>
+      <c r="AM21" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>F</v>
+      </c>
+      <c r="AN21" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>D</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>18</v>
       </c>
@@ -2809,8 +3136,23 @@
         <f t="shared" si="10"/>
         <v>O</v>
       </c>
+      <c r="AK22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL22" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>X</v>
+      </c>
+      <c r="AM22" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>I</v>
+      </c>
+      <c r="AN22" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>V</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -2913,8 +3255,23 @@
         <f t="shared" si="10"/>
         <v>F</v>
       </c>
+      <c r="AK23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL23" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>J</v>
+      </c>
+      <c r="AM23" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>B</v>
+      </c>
+      <c r="AN23" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>W</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -3020,8 +3377,23 @@
         <f t="shared" si="10"/>
         <v>B</v>
       </c>
+      <c r="AK24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL24" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>W</v>
+      </c>
+      <c r="AM24" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>M</v>
+      </c>
+      <c r="AN24" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>C</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -3130,8 +3502,23 @@
         <f t="shared" si="10"/>
         <v>S</v>
       </c>
+      <c r="AK25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL25" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>L</v>
+      </c>
+      <c r="AM25" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>K</v>
+      </c>
+      <c r="AN25" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>B</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -3234,8 +3621,23 @@
         <f t="shared" si="10"/>
         <v>T</v>
       </c>
+      <c r="AK26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL26" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>R</v>
+      </c>
+      <c r="AM26" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+      <c r="AN26" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>F</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -3341,8 +3743,23 @@
         <f t="shared" si="10"/>
         <v>C</v>
       </c>
+      <c r="AK27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL27" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>K</v>
+      </c>
+      <c r="AM27" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>D</v>
+      </c>
+      <c r="AN27" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>G</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -3448,8 +3865,23 @@
         <f t="shared" si="10"/>
         <v>H</v>
       </c>
+      <c r="AK28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL28" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>O</v>
+      </c>
+      <c r="AM28" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>Y</v>
+      </c>
+      <c r="AN28" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>O</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -3555,8 +3987,23 @@
         <f t="shared" si="10"/>
         <v>D</v>
       </c>
+      <c r="AK29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL29" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>M</v>
+      </c>
+      <c r="AM29" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>O</v>
+      </c>
+      <c r="AN29" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>M</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="J32" s="14" t="s">
         <v>31</v>
       </c>
@@ -3604,14 +4051,14 @@
         <v>10</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G58" si="11">INDEX($D$4:$E$29, MATCH(F34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G34:G58" si="14">INDEX($D$4:$E$29, MATCH(F34,$E$4:$E$29,0),1)</f>
         <v>10</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>1</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34:I59" si="12">INDEX($D$4:$E$29, MATCH(H34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I34:I59" si="15">INDEX($D$4:$E$29, MATCH(H34,$E$4:$E$29,0),1)</f>
         <v>1</v>
       </c>
       <c r="K34" s="3">
@@ -3631,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" ref="P34:P59" si="13">INDEX($D$4:$E$29, MATCH(O34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P34:P59" si="16">INDEX($D$4:$E$29, MATCH(O34,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="R34" s="3">
@@ -3651,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="17">
-        <f t="shared" ref="W34:W59" si="14">INDEX($D$4:$E$29, MATCH(V34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W34:W59" si="17">INDEX($D$4:$E$29, MATCH(V34,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="X34" s="2" t="s">
@@ -3674,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="17">
-        <f t="shared" ref="AD34:AD59" si="15">INDEX($D$4:$E$29, MATCH(AC34,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD34:AD59" si="18">INDEX($D$4:$E$29, MATCH(AC34,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -3695,14 +4142,14 @@
         <v>12</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="J35" s="5"/>
@@ -3716,14 +4163,14 @@
         <v>9</v>
       </c>
       <c r="N35" s="4">
-        <f t="shared" ref="N35:N59" si="16">INDEX($D$4:$E$29, MATCH(M35,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N35:N59" si="19">INDEX($D$4:$E$29, MATCH(M35,$E$4:$E$29,0),1)</f>
         <v>9</v>
       </c>
       <c r="O35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="Q35" s="5"/>
@@ -3737,14 +4184,14 @@
         <v>3</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" ref="U35:U59" si="17">INDEX($D$4:$E$29, MATCH(T35,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U35:U59" si="20">INDEX($D$4:$E$29, MATCH(T35,$E$4:$E$29,0),1)</f>
         <v>3</v>
       </c>
       <c r="V35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="X35" s="5"/>
@@ -3758,14 +4205,14 @@
         <v>17</v>
       </c>
       <c r="AB35" s="4">
-        <f t="shared" ref="AB35:AB59" si="18">INDEX($D$4:$E$29, MATCH(AA35,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB35:AB59" si="21">INDEX($D$4:$E$29, MATCH(AA35,$E$4:$E$29,0),1)</f>
         <v>17</v>
       </c>
       <c r="AC35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD35" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
@@ -3786,14 +4233,14 @@
         <v>5</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="J36" s="5"/>
@@ -3814,7 +4261,7 @@
         <v>2</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="Q36" s="5"/>
@@ -3835,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="X36" s="5"/>
@@ -3856,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="AD36" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
@@ -3877,14 +4324,14 @@
         <v>11</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="J37" s="5"/>
@@ -3898,14 +4345,14 @@
         <v>10</v>
       </c>
       <c r="N37" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="O37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="Q37" s="5"/>
@@ -3919,14 +4366,14 @@
         <v>7</v>
       </c>
       <c r="U37" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="V37" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W37" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="X37" s="5"/>
@@ -3947,7 +4394,7 @@
         <v>3</v>
       </c>
       <c r="AD37" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
     </row>
@@ -3968,14 +4415,14 @@
         <v>6</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="J38" s="5"/>
@@ -3989,14 +4436,14 @@
         <v>18</v>
       </c>
       <c r="N38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="Q38" s="5"/>
@@ -4010,14 +4457,14 @@
         <v>9</v>
       </c>
       <c r="U38" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="V38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W38" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="X38" s="5"/>
@@ -4031,14 +4478,14 @@
         <v>16</v>
       </c>
       <c r="AB38" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="AC38" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AD38" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
     </row>
@@ -4059,14 +4506,14 @@
         <v>3</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="J39" s="5"/>
@@ -4080,14 +4527,14 @@
         <v>8</v>
       </c>
       <c r="N39" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="Q39" s="5"/>
@@ -4101,14 +4548,14 @@
         <v>11</v>
       </c>
       <c r="U39" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="V39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W39" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="X39" s="5"/>
@@ -4122,14 +4569,14 @@
         <v>18</v>
       </c>
       <c r="AB39" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="AC39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD39" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
     </row>
@@ -4157,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="J40" s="5"/>
@@ -4171,14 +4618,14 @@
         <v>17</v>
       </c>
       <c r="N40" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="Q40" s="5"/>
@@ -4192,14 +4639,14 @@
         <v>2</v>
       </c>
       <c r="U40" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
       <c r="V40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="W40" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="X40" s="5"/>
@@ -4213,14 +4660,14 @@
         <v>11</v>
       </c>
       <c r="AB40" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="AC40" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD40" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
     </row>
@@ -4241,14 +4688,14 @@
         <v>21</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="J41" s="5" t="s">
@@ -4264,14 +4711,14 @@
         <v>20</v>
       </c>
       <c r="N41" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="O41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="Q41" s="5"/>
@@ -4285,14 +4732,14 @@
         <v>15</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="X41" s="5"/>
@@ -4306,14 +4753,14 @@
         <v>3</v>
       </c>
       <c r="AB41" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="AC41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD41" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
     </row>
@@ -4337,14 +4784,14 @@
         <v>25</v>
       </c>
       <c r="G42" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="J42" s="5"/>
@@ -4358,14 +4805,14 @@
         <v>23</v>
       </c>
       <c r="N42" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="Q42" s="5"/>
@@ -4379,14 +4826,14 @@
         <v>17</v>
       </c>
       <c r="U42" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="V42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W42" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="X42" s="5"/>
@@ -4400,14 +4847,14 @@
         <v>15</v>
       </c>
       <c r="AB42" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="AC42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD42" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
     </row>
@@ -4428,14 +4875,14 @@
         <v>13</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="J43" s="5"/>
@@ -4449,14 +4896,14 @@
         <v>1</v>
       </c>
       <c r="N43" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="Q43" s="5"/>
@@ -4470,14 +4917,14 @@
         <v>19</v>
       </c>
       <c r="U43" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="V43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W43" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="X43" s="5"/>
@@ -4491,14 +4938,14 @@
         <v>23</v>
       </c>
       <c r="AB43" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>23</v>
       </c>
       <c r="AC43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD43" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
     </row>
@@ -4519,14 +4966,14 @@
         <v>19</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="J44" s="5"/>
@@ -4540,14 +4987,14 @@
         <v>11</v>
       </c>
       <c r="N44" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="Q44" s="5"/>
@@ -4561,14 +5008,14 @@
         <v>23</v>
       </c>
       <c r="U44" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="V44" s="9" t="s">
         <v>10</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="X44" s="2" t="s">
@@ -4584,14 +5031,14 @@
         <v>13</v>
       </c>
       <c r="AB44" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="AC44" s="9" t="s">
         <v>10</v>
       </c>
       <c r="AD44" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
     </row>
@@ -4615,14 +5062,14 @@
         <v>14</v>
       </c>
       <c r="G45" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="J45" s="5"/>
@@ -4636,14 +5083,14 @@
         <v>7</v>
       </c>
       <c r="N45" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="O45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="Q45" s="5"/>
@@ -4657,14 +5104,14 @@
         <v>21</v>
       </c>
       <c r="U45" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="V45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="W45" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="X45" s="5"/>
@@ -4678,14 +5125,14 @@
         <v>6</v>
       </c>
       <c r="AB45" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="AC45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD45" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
     </row>
@@ -4706,14 +5153,14 @@
         <v>22</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="J46" s="5"/>
@@ -4727,14 +5174,14 @@
         <v>22</v>
       </c>
       <c r="N46" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="Q46" s="5"/>
@@ -4748,14 +5195,14 @@
         <v>25</v>
       </c>
       <c r="U46" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>25</v>
       </c>
       <c r="V46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="W46" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="X46" s="5"/>
@@ -4769,14 +5216,14 @@
         <v>14</v>
       </c>
       <c r="AB46" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="AC46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AD46" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
     </row>
@@ -4797,14 +5244,14 @@
         <v>24</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="H47" s="17" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="J47" s="5" t="s">
@@ -4820,14 +5267,14 @@
         <v>19</v>
       </c>
       <c r="N47" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="Q47" s="5" t="s">
@@ -4843,16 +5290,16 @@
         <v>13</v>
       </c>
       <c r="U47" s="6">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="V47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W47" s="6">
         <f t="shared" si="17"/>
         <v>13</v>
       </c>
-      <c r="V47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="W47" s="6">
-        <f t="shared" si="14"/>
-        <v>13</v>
-      </c>
       <c r="X47" s="5" t="s">
         <v>36</v>
       </c>
@@ -4866,14 +5313,14 @@
         <v>10</v>
       </c>
       <c r="AB47" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="AC47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD47" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
     </row>
@@ -4894,14 +5341,14 @@
         <v>7</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="J48" s="5"/>
@@ -4915,14 +5362,14 @@
         <v>12</v>
       </c>
       <c r="N48" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="O48" s="15" t="s">
         <v>14</v>
       </c>
       <c r="P48" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="Q48" s="5" t="s">
@@ -4938,14 +5385,14 @@
         <v>24</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="V48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="W48" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="X48" s="5"/>
@@ -4959,14 +5406,14 @@
         <v>12</v>
       </c>
       <c r="AB48" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="AC48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AD48" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
     </row>
@@ -4994,7 +5441,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="J49" s="5"/>
@@ -5008,14 +5455,14 @@
         <v>2</v>
       </c>
       <c r="N49" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="O49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="Q49" s="5"/>
@@ -5029,14 +5476,14 @@
         <v>4</v>
       </c>
       <c r="U49" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="V49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W49" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="X49" s="5"/>
@@ -5050,14 +5497,14 @@
         <v>8</v>
       </c>
       <c r="AB49" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="AC49" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
     </row>
@@ -5081,14 +5528,14 @@
         <v>20</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="J50" s="5"/>
@@ -5102,14 +5549,14 @@
         <v>16</v>
       </c>
       <c r="N50" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="Q50" s="5"/>
@@ -5123,14 +5570,14 @@
         <v>8</v>
       </c>
       <c r="U50" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="V50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W50" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="X50" s="5"/>
@@ -5144,14 +5591,14 @@
         <v>4</v>
       </c>
       <c r="AB50" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="AC50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD50" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
     </row>
@@ -5172,14 +5619,14 @@
         <v>18</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I51" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="J51" s="5"/>
@@ -5193,14 +5640,14 @@
         <v>6</v>
       </c>
       <c r="N51" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="O51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="Q51" s="5"/>
@@ -5214,14 +5661,14 @@
         <v>22</v>
       </c>
       <c r="U51" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="V51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W51" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="X51" s="5"/>
@@ -5235,14 +5682,14 @@
         <v>1</v>
       </c>
       <c r="AB51" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="AC51" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD51" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
     </row>
@@ -5263,14 +5710,14 @@
         <v>15</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I52" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="J52" s="5"/>
@@ -5284,14 +5731,14 @@
         <v>25</v>
       </c>
       <c r="N52" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P52" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="Q52" s="5"/>
@@ -5305,14 +5752,14 @@
         <v>6</v>
       </c>
       <c r="U52" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="V52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="W52" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>18</v>
       </c>
       <c r="X52" s="5"/>
@@ -5326,14 +5773,14 @@
         <v>5</v>
       </c>
       <c r="AB52" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="AC52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD52" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
     </row>
@@ -5354,14 +5801,14 @@
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H53" s="6" t="s">
         <v>20</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="J53" s="5" t="s">
@@ -5377,14 +5824,14 @@
         <v>13</v>
       </c>
       <c r="N53" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="O53" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P53" s="17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="Q53" s="2" t="s">
@@ -5400,14 +5847,14 @@
         <v>0</v>
       </c>
       <c r="U53" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="V53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W53" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="X53" s="5"/>
@@ -5421,14 +5868,14 @@
         <v>25</v>
       </c>
       <c r="AB53" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>25</v>
       </c>
       <c r="AC53" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD53" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -5452,14 +5899,14 @@
         <v>8</v>
       </c>
       <c r="G54" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="J54" s="5"/>
@@ -5473,14 +5920,14 @@
         <v>15</v>
       </c>
       <c r="N54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="O54" s="9" t="s">
         <v>20</v>
       </c>
       <c r="P54" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="Q54" s="2" t="s">
@@ -5496,14 +5943,14 @@
         <v>10</v>
       </c>
       <c r="U54" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="V54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="W54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="X54" s="5"/>
@@ -5517,14 +5964,14 @@
         <v>2</v>
       </c>
       <c r="AB54" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="AC54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD54" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
     </row>
@@ -5545,14 +5992,14 @@
         <v>1</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="J55" s="5"/>
@@ -5566,14 +6013,14 @@
         <v>24</v>
       </c>
       <c r="N55" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="O55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="Q55" s="5"/>
@@ -5587,14 +6034,14 @@
         <v>12</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="V55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W55" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="X55" s="5"/>
@@ -5608,14 +6055,14 @@
         <v>22</v>
       </c>
       <c r="AB55" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="AC55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD55" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
     </row>
@@ -5636,14 +6083,14 @@
         <v>17</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="J56" s="5"/>
@@ -5657,14 +6104,14 @@
         <v>5</v>
       </c>
       <c r="N56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="Q56" s="5"/>
@@ -5678,14 +6125,14 @@
         <v>20</v>
       </c>
       <c r="U56" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="V56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W56" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="X56" s="5"/>
@@ -5699,14 +6146,14 @@
         <v>21</v>
       </c>
       <c r="AB56" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="AC56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD56" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
     </row>
@@ -5727,14 +6174,14 @@
         <v>2</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="J57" s="5"/>
@@ -5748,14 +6195,14 @@
         <v>21</v>
       </c>
       <c r="N57" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="O57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P57" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>23</v>
       </c>
       <c r="Q57" s="5"/>
@@ -5769,14 +6216,14 @@
         <v>18</v>
       </c>
       <c r="U57" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="V57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W57" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="X57" s="5"/>
@@ -5790,14 +6237,14 @@
         <v>9</v>
       </c>
       <c r="AB57" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="AC57" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD57" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
     </row>
@@ -5818,14 +6265,14 @@
         <v>9</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="H58" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I58" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>25</v>
       </c>
       <c r="J58" s="5" t="s">
@@ -5841,14 +6288,14 @@
         <v>14</v>
       </c>
       <c r="N58" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P58" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="Q58" s="5"/>
@@ -5862,14 +6309,14 @@
         <v>16</v>
       </c>
       <c r="U58" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="V58" s="15" t="s">
         <v>24</v>
       </c>
       <c r="W58" s="15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="X58" s="5" t="s">
@@ -5885,14 +6332,14 @@
         <v>0</v>
       </c>
       <c r="AB58" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AC58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD58" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
     </row>
@@ -5920,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J59" s="5"/>
@@ -5934,14 +6381,14 @@
         <v>4</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="O59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>25</v>
       </c>
       <c r="Q59" s="5"/>
@@ -5955,14 +6402,14 @@
         <v>14</v>
       </c>
       <c r="U59" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="V59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W59" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>25</v>
       </c>
       <c r="X59" s="5"/>
@@ -5976,14 +6423,14 @@
         <v>19</v>
       </c>
       <c r="AB59" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="AC59" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD59" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
     </row>
@@ -6036,14 +6483,14 @@
         <v>12</v>
       </c>
       <c r="G64" s="4">
-        <f t="shared" ref="G64:G89" si="19">INDEX($D$4:$E$29, MATCH(F64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G64:G89" si="22">INDEX($D$4:$E$29, MATCH(F64,$E$4:$E$29,0),1)</f>
         <v>12</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I64" s="4">
-        <f t="shared" ref="I64:I89" si="20">INDEX($D$4:$E$29, MATCH(H64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I64:I89" si="23">INDEX($D$4:$E$29, MATCH(H64,$E$4:$E$29,0),1)</f>
         <v>2</v>
       </c>
       <c r="J64" s="5"/>
@@ -6057,14 +6504,14 @@
         <v>9</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" ref="N64:N88" si="21">INDEX($D$4:$E$29, MATCH(M64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N64:N88" si="24">INDEX($D$4:$E$29, MATCH(M64,$E$4:$E$29,0),1)</f>
         <v>9</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" ref="P64:P89" si="22">INDEX($D$4:$E$29, MATCH(O64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P64:P89" si="25">INDEX($D$4:$E$29, MATCH(O64,$E$4:$E$29,0),1)</f>
         <v>1</v>
       </c>
       <c r="Q64" s="5"/>
@@ -6085,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="4">
-        <f t="shared" ref="W64:W89" si="23">INDEX($D$4:$E$29, MATCH(V64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W64:W89" si="26">INDEX($D$4:$E$29, MATCH(V64,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
       <c r="X64" s="5"/>
@@ -6106,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="AD64" s="4">
-        <f t="shared" ref="AD64:AD89" si="24">INDEX($D$4:$E$29, MATCH(AC64,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD64:AD89" si="27">INDEX($D$4:$E$29, MATCH(AC64,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -6128,14 +6575,14 @@
         <v>5</v>
       </c>
       <c r="G65" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I65" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="J65" s="5"/>
@@ -6156,7 +6603,7 @@
         <v>2</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="Q65" s="5"/>
@@ -6170,14 +6617,14 @@
         <v>3</v>
       </c>
       <c r="U65" s="4">
-        <f t="shared" ref="U65:U89" si="25">INDEX($D$4:$E$29, MATCH(T65,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U65:U89" si="28">INDEX($D$4:$E$29, MATCH(T65,$E$4:$E$29,0),1)</f>
         <v>3</v>
       </c>
       <c r="V65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W65" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="X65" s="5"/>
@@ -6191,14 +6638,14 @@
         <v>17</v>
       </c>
       <c r="AB65" s="4">
-        <f t="shared" ref="AB65:AB89" si="26">INDEX($D$4:$E$29, MATCH(AA65,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB65:AB89" si="29">INDEX($D$4:$E$29, MATCH(AA65,$E$4:$E$29,0),1)</f>
         <v>17</v>
       </c>
       <c r="AC65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD65" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
@@ -6220,14 +6667,14 @@
         <v>11</v>
       </c>
       <c r="G66" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I66" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="J66" s="5"/>
@@ -6241,14 +6688,14 @@
         <v>10</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>10</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P66" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="Q66" s="5"/>
@@ -6269,7 +6716,7 @@
         <v>2</v>
       </c>
       <c r="W66" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>2</v>
       </c>
       <c r="X66" s="5"/>
@@ -6290,7 +6737,7 @@
         <v>2</v>
       </c>
       <c r="AD66" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
     </row>
@@ -6312,14 +6759,14 @@
         <v>6</v>
       </c>
       <c r="G67" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I67" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="J67" s="5"/>
@@ -6333,14 +6780,14 @@
         <v>18</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="O67" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P67" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="Q67" s="5"/>
@@ -6354,14 +6801,14 @@
         <v>7</v>
       </c>
       <c r="U67" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="V67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W67" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="X67" s="5"/>
@@ -6382,7 +6829,7 @@
         <v>3</v>
       </c>
       <c r="AD67" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
     </row>
@@ -6404,14 +6851,14 @@
         <v>3</v>
       </c>
       <c r="G68" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I68" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="J68" s="5"/>
@@ -6425,14 +6872,14 @@
         <v>8</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>8</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P68" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="Q68" s="5"/>
@@ -6446,14 +6893,14 @@
         <v>9</v>
       </c>
       <c r="U68" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
       <c r="V68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W68" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="X68" s="5"/>
@@ -6467,14 +6914,14 @@
         <v>16</v>
       </c>
       <c r="AB68" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="AC68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AD68" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -6496,14 +6943,14 @@
         <v>16</v>
       </c>
       <c r="G69" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="H69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="J69" s="5"/>
@@ -6517,14 +6964,14 @@
         <v>17</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>6</v>
       </c>
       <c r="P69" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="Q69" s="5" t="s">
@@ -6540,14 +6987,14 @@
         <v>11</v>
       </c>
       <c r="U69" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
       <c r="V69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W69" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="X69" s="5"/>
@@ -6561,14 +7008,14 @@
         <v>18</v>
       </c>
       <c r="AB69" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="AC69" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AD69" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
     </row>
@@ -6590,14 +7037,14 @@
         <v>21</v>
       </c>
       <c r="G70" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="J70" s="5"/>
@@ -6611,14 +7058,14 @@
         <v>20</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P70" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="Q70" s="5"/>
@@ -6632,14 +7079,14 @@
         <v>2</v>
       </c>
       <c r="U70" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
       <c r="V70" s="9" t="s">
         <v>6</v>
       </c>
       <c r="W70" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
       <c r="X70" s="5" t="s">
@@ -6655,14 +7102,14 @@
         <v>11</v>
       </c>
       <c r="AB70" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>11</v>
       </c>
       <c r="AC70" s="9" t="s">
         <v>6</v>
       </c>
       <c r="AD70" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
     </row>
@@ -6684,14 +7131,14 @@
         <v>25</v>
       </c>
       <c r="G71" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>25</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I71" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="J71" s="5"/>
@@ -6705,14 +7152,14 @@
         <v>23</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="O71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P71" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="Q71" s="5"/>
@@ -6726,14 +7173,14 @@
         <v>15</v>
       </c>
       <c r="U71" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>15</v>
       </c>
       <c r="V71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="W71" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="X71" s="5"/>
@@ -6747,14 +7194,14 @@
         <v>3</v>
       </c>
       <c r="AB71" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="AC71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD71" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
     </row>
@@ -6778,14 +7225,14 @@
         <v>13</v>
       </c>
       <c r="G72" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I72" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="J72" s="5"/>
@@ -6799,14 +7246,14 @@
         <v>1</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P72" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="Q72" s="5"/>
@@ -6820,14 +7267,14 @@
         <v>17</v>
       </c>
       <c r="U72" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
       <c r="V72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W72" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
       <c r="X72" s="5"/>
@@ -6841,14 +7288,14 @@
         <v>15</v>
       </c>
       <c r="AB72" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="AC72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD72" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
     </row>
@@ -6870,14 +7317,14 @@
         <v>19</v>
       </c>
       <c r="G73" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I73" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="J73" s="5"/>
@@ -6891,14 +7338,14 @@
         <v>11</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="O73" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P73" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="Q73" s="5"/>
@@ -6912,14 +7359,14 @@
         <v>19</v>
       </c>
       <c r="U73" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>19</v>
       </c>
       <c r="V73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W73" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="X73" s="5"/>
@@ -6933,14 +7380,14 @@
         <v>23</v>
       </c>
       <c r="AB73" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>23</v>
       </c>
       <c r="AC73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD73" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
     </row>
@@ -6964,14 +7411,14 @@
         <v>14</v>
       </c>
       <c r="G74" s="9">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I74" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="J74" s="5"/>
@@ -6985,14 +7432,14 @@
         <v>7</v>
       </c>
       <c r="N74" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="O74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P74" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="Q74" s="5"/>
@@ -7006,14 +7453,14 @@
         <v>23</v>
       </c>
       <c r="U74" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>23</v>
       </c>
       <c r="V74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W74" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="X74" s="5"/>
@@ -7027,14 +7474,14 @@
         <v>13</v>
       </c>
       <c r="AB74" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>13</v>
       </c>
       <c r="AC74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AD74" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
     </row>
@@ -7056,14 +7503,14 @@
         <v>22</v>
       </c>
       <c r="G75" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I75" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="J75" s="5" t="s">
@@ -7079,14 +7526,14 @@
         <v>22</v>
       </c>
       <c r="N75" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="O75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P75" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="Q75" s="5"/>
@@ -7100,14 +7547,14 @@
         <v>21</v>
       </c>
       <c r="U75" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="V75" s="6" t="s">
         <v>11</v>
       </c>
       <c r="W75" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="X75" s="5" t="s">
@@ -7123,14 +7570,14 @@
         <v>6</v>
       </c>
       <c r="AB75" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="AC75" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD75" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
     </row>
@@ -7152,14 +7599,14 @@
         <v>24</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>24</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I76" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="J76" s="5" t="s">
@@ -7175,14 +7622,14 @@
         <v>19</v>
       </c>
       <c r="N76" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="O76" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="Q76" s="5"/>
@@ -7196,14 +7643,14 @@
         <v>25</v>
       </c>
       <c r="U76" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>25</v>
       </c>
       <c r="V76" s="15" t="s">
         <v>12</v>
       </c>
       <c r="W76" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="X76" s="5" t="s">
@@ -7219,14 +7666,14 @@
         <v>14</v>
       </c>
       <c r="AB76" s="15">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
       <c r="AC76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AD76" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
     </row>
@@ -7248,14 +7695,14 @@
         <v>7</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="J77" s="5"/>
@@ -7269,14 +7716,14 @@
         <v>12</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="O77" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="Q77" s="5"/>
@@ -7290,14 +7737,14 @@
         <v>13</v>
       </c>
       <c r="U77" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
       <c r="V77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="W77" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="X77" s="5"/>
@@ -7311,14 +7758,14 @@
         <v>10</v>
       </c>
       <c r="AB77" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="AC77" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD77" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
     </row>
@@ -7340,14 +7787,14 @@
         <v>23</v>
       </c>
       <c r="G78" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>23</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I78" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="J78" s="5"/>
@@ -7361,14 +7808,14 @@
         <v>2</v>
       </c>
       <c r="N78" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="O78" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P78" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="Q78" s="5"/>
@@ -7382,14 +7829,14 @@
         <v>24</v>
       </c>
       <c r="U78" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>24</v>
       </c>
       <c r="V78" s="17" t="s">
         <v>14</v>
       </c>
       <c r="W78" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="X78" s="5" t="s">
@@ -7405,14 +7852,14 @@
         <v>12</v>
       </c>
       <c r="AB78" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>12</v>
       </c>
       <c r="AC78" s="17" t="s">
         <v>14</v>
       </c>
       <c r="AD78" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
     </row>
@@ -7434,14 +7881,14 @@
         <v>20</v>
       </c>
       <c r="G79" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I79" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="J79" s="5"/>
@@ -7455,14 +7902,14 @@
         <v>16</v>
       </c>
       <c r="N79" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="O79" s="4" t="s">
         <v>16</v>
       </c>
       <c r="P79" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="Q79" s="5"/>
@@ -7476,14 +7923,14 @@
         <v>4</v>
       </c>
       <c r="U79" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="V79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W79" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="X79" s="5"/>
@@ -7497,14 +7944,14 @@
         <v>8</v>
       </c>
       <c r="AB79" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="AC79" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD79" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
     </row>
@@ -7528,14 +7975,14 @@
         <v>18</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="H80" s="6" t="s">
         <v>18</v>
       </c>
       <c r="I80" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="J80" s="5" t="s">
@@ -7551,14 +7998,14 @@
         <v>6</v>
       </c>
       <c r="N80" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="O80" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P80" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="Q80" s="5"/>
@@ -7572,14 +8019,14 @@
         <v>8</v>
       </c>
       <c r="U80" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
       <c r="V80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="W80" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="X80" s="5"/>
@@ -7593,14 +8040,14 @@
         <v>4</v>
       </c>
       <c r="AB80" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>4</v>
       </c>
       <c r="AC80" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD80" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
     </row>
@@ -7622,14 +8069,14 @@
         <v>15</v>
       </c>
       <c r="G81" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I81" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="J81" s="5"/>
@@ -7643,14 +8090,14 @@
         <v>25</v>
       </c>
       <c r="N81" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>25</v>
       </c>
       <c r="O81" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P81" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="Q81" s="5"/>
@@ -7664,14 +8111,14 @@
         <v>22</v>
       </c>
       <c r="U81" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>22</v>
       </c>
       <c r="V81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W81" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="X81" s="5"/>
@@ -7685,14 +8132,14 @@
         <v>1</v>
       </c>
       <c r="AB81" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="AC81" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD81" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
     </row>
@@ -7714,14 +8161,14 @@
         <v>0</v>
       </c>
       <c r="G82" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I82" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="J82" s="5"/>
@@ -7735,14 +8182,14 @@
         <v>13</v>
       </c>
       <c r="N82" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="O82" s="9" t="s">
         <v>19</v>
       </c>
       <c r="P82" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="Q82" s="5" t="s">
@@ -7758,14 +8205,14 @@
         <v>6</v>
       </c>
       <c r="U82" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="V82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="W82" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>18</v>
       </c>
       <c r="X82" s="5"/>
@@ -7779,14 +8226,14 @@
         <v>5</v>
       </c>
       <c r="AB82" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="AC82" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD82" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
     </row>
@@ -7808,14 +8255,14 @@
         <v>8</v>
       </c>
       <c r="G83" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="H83" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I83" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="J83" s="5"/>
@@ -7829,14 +8276,14 @@
         <v>15</v>
       </c>
       <c r="N83" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="O83" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P83" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>20</v>
       </c>
       <c r="Q83" s="5"/>
@@ -7850,14 +8297,14 @@
         <v>0</v>
       </c>
       <c r="U83" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W83" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>19</v>
       </c>
       <c r="X83" s="5"/>
@@ -7871,14 +8318,14 @@
         <v>25</v>
       </c>
       <c r="AB83" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>25</v>
       </c>
       <c r="AC83" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD83" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
     </row>
@@ -7902,14 +8349,14 @@
         <v>1</v>
       </c>
       <c r="G84" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I84" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="J84" s="5"/>
@@ -7923,14 +8370,14 @@
         <v>24</v>
       </c>
       <c r="N84" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>24</v>
       </c>
       <c r="O84" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P84" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="Q84" s="5"/>
@@ -7944,14 +8391,14 @@
         <v>10</v>
       </c>
       <c r="U84" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
       <c r="V84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="W84" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="X84" s="5"/>
@@ -7965,14 +8412,14 @@
         <v>2</v>
       </c>
       <c r="AB84" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
       <c r="AC84" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD84" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
     </row>
@@ -7994,14 +8441,14 @@
         <v>17</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I85" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>23</v>
       </c>
       <c r="J85" s="5"/>
@@ -8015,14 +8462,14 @@
         <v>5</v>
       </c>
       <c r="N85" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="O85" s="15" t="s">
         <v>22</v>
       </c>
       <c r="P85" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="Q85" s="5" t="s">
@@ -8038,14 +8485,14 @@
         <v>12</v>
       </c>
       <c r="U85" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="V85" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W85" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="X85" s="5"/>
@@ -8059,14 +8506,14 @@
         <v>22</v>
       </c>
       <c r="AB85" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="AC85" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD85" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>21</v>
       </c>
     </row>
@@ -8088,14 +8535,14 @@
         <v>2</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I86" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>24</v>
       </c>
       <c r="J86" s="5"/>
@@ -8109,14 +8556,14 @@
         <v>21</v>
       </c>
       <c r="N86" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="O86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P86" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="Q86" s="5"/>
@@ -8130,14 +8577,14 @@
         <v>20</v>
       </c>
       <c r="U86" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="V86" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W86" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="X86" s="5"/>
@@ -8151,14 +8598,14 @@
         <v>21</v>
       </c>
       <c r="AB86" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>21</v>
       </c>
       <c r="AC86" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD86" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
     </row>
@@ -8180,14 +8627,14 @@
         <v>9</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I87" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="J87" s="5"/>
@@ -8201,14 +8648,14 @@
         <v>14</v>
       </c>
       <c r="N87" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="O87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P87" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>24</v>
       </c>
       <c r="Q87" s="5"/>
@@ -8222,14 +8669,14 @@
         <v>18</v>
       </c>
       <c r="U87" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="V87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W87" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>23</v>
       </c>
       <c r="X87" s="5"/>
@@ -8243,14 +8690,14 @@
         <v>9</v>
       </c>
       <c r="AB87" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>9</v>
       </c>
       <c r="AC87" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD87" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>23</v>
       </c>
     </row>
@@ -8272,14 +8719,14 @@
         <v>4</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I88" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J88" s="5"/>
@@ -8293,14 +8740,14 @@
         <v>4</v>
       </c>
       <c r="N88" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="O88" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P88" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="Q88" s="5"/>
@@ -8314,14 +8761,14 @@
         <v>16</v>
       </c>
       <c r="U88" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>16</v>
       </c>
       <c r="V88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W88" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>24</v>
       </c>
       <c r="X88" s="5"/>
@@ -8335,14 +8782,14 @@
         <v>0</v>
       </c>
       <c r="AB88" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AC88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD88" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>24</v>
       </c>
     </row>
@@ -8364,14 +8811,14 @@
         <v>10</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="H89" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I89" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="J89" s="5" t="s">
@@ -8394,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q89" s="5" t="s">
@@ -8410,14 +8857,14 @@
         <v>14</v>
       </c>
       <c r="U89" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="V89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W89" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="X89" s="5"/>
@@ -8431,14 +8878,14 @@
         <v>19</v>
       </c>
       <c r="AB89" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="AC89" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD89" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
     </row>
@@ -8528,14 +8975,14 @@
         <v>13</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" ref="G95:G120" si="27">INDEX($D$4:$E$29, MATCH(F95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="G95:G120" si="30">INDEX($D$4:$E$29, MATCH(F95,$E$4:$E$29,0),1)</f>
         <v>13</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I95" s="4">
-        <f t="shared" ref="I95:I120" si="28">INDEX($D$4:$E$29, MATCH(H95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="I95:I120" si="31">INDEX($D$4:$E$29, MATCH(H95,$E$4:$E$29,0),1)</f>
         <v>10</v>
       </c>
       <c r="J95" s="5"/>
@@ -8549,14 +8996,14 @@
         <v>5</v>
       </c>
       <c r="N95" s="4">
-        <f t="shared" ref="N95:N120" si="29">INDEX($D$4:$E$29, MATCH(M95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="N95:N120" si="32">INDEX($D$4:$E$29, MATCH(M95,$E$4:$E$29,0),1)</f>
         <v>5</v>
       </c>
       <c r="O95" s="4" t="s">
         <v>22</v>
       </c>
       <c r="P95" s="4">
-        <f t="shared" ref="P95:P120" si="30">INDEX($D$4:$E$29, MATCH(O95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="P95:P120" si="33">INDEX($D$4:$E$29, MATCH(O95,$E$4:$E$29,0),1)</f>
         <v>22</v>
       </c>
       <c r="Q95" s="5"/>
@@ -8570,14 +9017,14 @@
         <v>5</v>
       </c>
       <c r="U95" s="4">
-        <f t="shared" ref="U95:U120" si="31">INDEX($D$4:$E$29, MATCH(T95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="U95:U120" si="34">INDEX($D$4:$E$29, MATCH(T95,$E$4:$E$29,0),1)</f>
         <v>5</v>
       </c>
       <c r="V95" s="4" t="s">
         <v>2</v>
       </c>
       <c r="W95" s="4">
-        <f t="shared" ref="W95:W120" si="32">INDEX($D$4:$E$29, MATCH(V95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="W95:W120" si="35">INDEX($D$4:$E$29, MATCH(V95,$E$4:$E$29,0),1)</f>
         <v>2</v>
       </c>
       <c r="X95" s="5"/>
@@ -8598,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="AD95" s="4">
-        <f t="shared" ref="AD95:AD120" si="33">INDEX($D$4:$E$29, MATCH(AC95,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AD95:AD120" si="36">INDEX($D$4:$E$29, MATCH(AC95,$E$4:$E$29,0),1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8620,14 +9067,14 @@
         <v>19</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="J96" s="5"/>
@@ -8641,14 +9088,14 @@
         <v>21</v>
       </c>
       <c r="N96" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
       <c r="O96" s="9" t="s">
         <v>23</v>
       </c>
       <c r="P96" s="9">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>23</v>
       </c>
       <c r="Q96" s="20" t="s">
@@ -8664,14 +9111,14 @@
         <v>7</v>
       </c>
       <c r="U96" s="9">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="V96" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W96" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="X96" s="5"/>
@@ -8685,14 +9132,14 @@
         <v>17</v>
       </c>
       <c r="AB96" s="4">
-        <f t="shared" ref="AB96:AB120" si="34">INDEX($D$4:$E$29, MATCH(AA96,$E$4:$E$29,0),1)</f>
+        <f t="shared" ref="AB96:AB120" si="37">INDEX($D$4:$E$29, MATCH(AA96,$E$4:$E$29,0),1)</f>
         <v>17</v>
       </c>
       <c r="AC96" s="4" t="s">
         <v>1</v>
       </c>
       <c r="AD96" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
     </row>
@@ -8714,14 +9161,14 @@
         <v>14</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I97" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>12</v>
       </c>
       <c r="J97" s="5"/>
@@ -8735,14 +9182,14 @@
         <v>14</v>
       </c>
       <c r="N97" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
       <c r="O97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="P97" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>24</v>
       </c>
       <c r="Q97" s="5"/>
@@ -8756,14 +9203,14 @@
         <v>9</v>
       </c>
       <c r="U97" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="V97" s="4" t="s">
         <v>4</v>
       </c>
       <c r="W97" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="X97" s="5"/>
@@ -8784,7 +9231,7 @@
         <v>2</v>
       </c>
       <c r="AD97" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
     </row>
@@ -8808,14 +9255,14 @@
         <v>22</v>
       </c>
       <c r="G98" s="9">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="J98" s="5"/>
@@ -8829,14 +9276,14 @@
         <v>4</v>
       </c>
       <c r="N98" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="O98" s="4" t="s">
         <v>25</v>
       </c>
       <c r="P98" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
       <c r="Q98" s="5"/>
@@ -8850,14 +9297,14 @@
         <v>11</v>
       </c>
       <c r="U98" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="V98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W98" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="X98" s="5"/>
@@ -8878,7 +9325,7 @@
         <v>3</v>
       </c>
       <c r="AD98" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
     </row>
@@ -8900,14 +9347,14 @@
         <v>24</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>24</v>
       </c>
       <c r="H99" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I99" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>14</v>
       </c>
       <c r="J99" s="5"/>
@@ -8921,14 +9368,14 @@
         <v>0</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O99" s="4" t="s">
         <v>0</v>
       </c>
       <c r="P99" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q99" s="5"/>
@@ -8942,14 +9389,14 @@
         <v>2</v>
       </c>
       <c r="U99" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="V99" s="4" t="s">
         <v>6</v>
       </c>
       <c r="W99" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>6</v>
       </c>
       <c r="X99" s="5"/>
@@ -8963,14 +9410,14 @@
         <v>16</v>
       </c>
       <c r="AB99" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>16</v>
       </c>
       <c r="AC99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="AD99" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
     </row>
@@ -8992,14 +9439,14 @@
         <v>7</v>
       </c>
       <c r="G100" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I100" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="J100" s="5"/>
@@ -9013,14 +9460,14 @@
         <v>9</v>
       </c>
       <c r="N100" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="O100" s="4" t="s">
         <v>1</v>
       </c>
       <c r="P100" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="Q100" s="5"/>
@@ -9034,14 +9481,14 @@
         <v>15</v>
       </c>
       <c r="U100" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="V100" s="9" t="s">
         <v>7</v>
       </c>
       <c r="W100" s="9">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="X100" s="5" t="s">
@@ -9057,14 +9504,14 @@
         <v>18</v>
       </c>
       <c r="AB100" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>18</v>
       </c>
       <c r="AC100" s="9" t="s">
         <v>5</v>
       </c>
       <c r="AD100" s="9">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
     </row>
@@ -9086,14 +9533,14 @@
         <v>23</v>
       </c>
       <c r="G101" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I101" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>16</v>
       </c>
       <c r="J101" s="5"/>
@@ -9107,14 +9554,14 @@
         <v>3</v>
       </c>
       <c r="N101" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="O101" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P101" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="Q101" s="5"/>
@@ -9128,14 +9575,14 @@
         <v>17</v>
       </c>
       <c r="U101" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="V101" s="4" t="s">
         <v>8</v>
       </c>
       <c r="W101" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>8</v>
       </c>
       <c r="X101" s="5"/>
@@ -9149,14 +9596,14 @@
         <v>11</v>
       </c>
       <c r="AB101" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>11</v>
       </c>
       <c r="AC101" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AD101" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
     </row>
@@ -9178,14 +9625,14 @@
         <v>20</v>
       </c>
       <c r="G102" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>20</v>
       </c>
       <c r="H102" s="4" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>17</v>
       </c>
       <c r="J102" s="5"/>
@@ -9199,14 +9646,14 @@
         <v>10</v>
       </c>
       <c r="N102" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>10</v>
       </c>
       <c r="O102" s="4" t="s">
         <v>3</v>
       </c>
       <c r="P102" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>3</v>
       </c>
       <c r="Q102" s="5"/>
@@ -9220,14 +9667,14 @@
         <v>19</v>
       </c>
       <c r="U102" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>19</v>
       </c>
       <c r="V102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="W102" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="X102" s="5"/>
@@ -9241,14 +9688,14 @@
         <v>3</v>
       </c>
       <c r="AB102" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="AC102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="AD102" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
     </row>
@@ -9272,14 +9719,14 @@
         <v>18</v>
       </c>
       <c r="G103" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>18</v>
       </c>
       <c r="H103" s="15" t="s">
         <v>18</v>
       </c>
       <c r="I103" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>18</v>
       </c>
       <c r="J103" s="20" t="s">
@@ -9295,14 +9742,14 @@
         <v>18</v>
       </c>
       <c r="N103" s="15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>18</v>
       </c>
       <c r="O103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="P103" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="Q103" s="5"/>
@@ -9316,14 +9763,14 @@
         <v>23</v>
       </c>
       <c r="U103" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>23</v>
       </c>
       <c r="V103" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W103" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="X103" s="5"/>
@@ -9337,14 +9784,14 @@
         <v>15</v>
       </c>
       <c r="AB103" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>15</v>
       </c>
       <c r="AC103" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AD103" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
     </row>
@@ -9366,14 +9813,14 @@
         <v>15</v>
       </c>
       <c r="G104" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>15</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I104" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="J104" s="5"/>
@@ -9387,14 +9834,14 @@
         <v>8</v>
       </c>
       <c r="N104" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="O104" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P104" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>5</v>
       </c>
       <c r="Q104" s="5"/>
@@ -9408,14 +9855,14 @@
         <v>21</v>
       </c>
       <c r="U104" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>21</v>
       </c>
       <c r="V104" s="4" t="s">
         <v>11</v>
       </c>
       <c r="W104" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="X104" s="5"/>
@@ -9429,14 +9876,14 @@
         <v>23</v>
       </c>
       <c r="AB104" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>23</v>
       </c>
       <c r="AC104" s="4" t="s">
         <v>9</v>
       </c>
       <c r="AD104" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
     </row>
@@ -9458,14 +9905,14 @@
         <v>0</v>
       </c>
       <c r="G105" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I105" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>20</v>
       </c>
       <c r="J105" s="5"/>
@@ -9479,14 +9926,14 @@
         <v>17</v>
       </c>
       <c r="N105" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>17</v>
       </c>
       <c r="O105" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P105" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="Q105" s="5"/>
@@ -9500,14 +9947,14 @@
         <v>25</v>
       </c>
       <c r="U105" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="V105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="W105" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="X105" s="5"/>
@@ -9521,14 +9968,14 @@
         <v>13</v>
       </c>
       <c r="AB105" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>13</v>
       </c>
       <c r="AC105" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AD105" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
     </row>
@@ -9550,14 +9997,14 @@
         <v>8</v>
       </c>
       <c r="G106" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>8</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I106" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>21</v>
       </c>
       <c r="J106" s="5"/>
@@ -9571,14 +10018,14 @@
         <v>20</v>
       </c>
       <c r="N106" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="O106" s="4" t="s">
         <v>7</v>
       </c>
       <c r="P106" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="Q106" s="5"/>
@@ -9592,14 +10039,14 @@
         <v>13</v>
       </c>
       <c r="U106" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>13</v>
       </c>
       <c r="V106" s="4" t="s">
         <v>13</v>
       </c>
       <c r="W106" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="X106" s="5"/>
@@ -9613,14 +10060,14 @@
         <v>6</v>
       </c>
       <c r="AB106" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>6</v>
       </c>
       <c r="AC106" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AD106" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
     </row>
@@ -9644,14 +10091,14 @@
         <v>1</v>
       </c>
       <c r="G107" s="17">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>22</v>
       </c>
       <c r="I107" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>22</v>
       </c>
       <c r="J107" s="20" t="s">
@@ -9667,14 +10114,14 @@
         <v>23</v>
       </c>
       <c r="N107" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>23</v>
       </c>
       <c r="O107" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P107" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>8</v>
       </c>
       <c r="Q107" s="5"/>
@@ -9688,14 +10135,14 @@
         <v>24</v>
       </c>
       <c r="U107" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>24</v>
       </c>
       <c r="V107" s="17" t="s">
         <v>14</v>
       </c>
       <c r="W107" s="17">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="X107" s="5" t="s">
@@ -9711,14 +10158,14 @@
         <v>14</v>
       </c>
       <c r="AB107" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>14</v>
       </c>
       <c r="AC107" s="17" t="s">
         <v>12</v>
       </c>
       <c r="AD107" s="17">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
     </row>
@@ -9740,14 +10187,14 @@
         <v>17</v>
       </c>
       <c r="G108" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>23</v>
       </c>
       <c r="I108" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>23</v>
       </c>
       <c r="J108" s="5"/>
@@ -9761,14 +10208,14 @@
         <v>1</v>
       </c>
       <c r="N108" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="O108" s="4" t="s">
         <v>9</v>
       </c>
       <c r="P108" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="Q108" s="5"/>
@@ -9782,14 +10229,14 @@
         <v>4</v>
       </c>
       <c r="U108" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="V108" s="4" t="s">
         <v>15</v>
       </c>
       <c r="W108" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="X108" s="5"/>
@@ -9803,14 +10250,14 @@
         <v>10</v>
       </c>
       <c r="AB108" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>10</v>
       </c>
       <c r="AC108" s="4" t="s">
         <v>13</v>
       </c>
       <c r="AD108" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
     </row>
@@ -9832,14 +10279,14 @@
         <v>2</v>
       </c>
       <c r="G109" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="H109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I109" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>24</v>
       </c>
       <c r="J109" s="5"/>
@@ -9853,14 +10300,14 @@
         <v>11</v>
       </c>
       <c r="N109" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>11</v>
       </c>
       <c r="O109" s="4" t="s">
         <v>10</v>
       </c>
       <c r="P109" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>10</v>
       </c>
       <c r="Q109" s="5"/>
@@ -9874,14 +10321,14 @@
         <v>8</v>
       </c>
       <c r="U109" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="V109" s="15" t="s">
         <v>16</v>
       </c>
       <c r="W109" s="15">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="X109" s="20" t="s">
@@ -9897,14 +10344,14 @@
         <v>12</v>
       </c>
       <c r="AB109" s="15">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>12</v>
       </c>
       <c r="AC109" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AD109" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
     </row>
@@ -9926,14 +10373,14 @@
         <v>9</v>
       </c>
       <c r="G110" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>9</v>
       </c>
       <c r="H110" s="4" t="s">
         <v>25</v>
       </c>
       <c r="I110" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>25</v>
       </c>
       <c r="J110" s="5"/>
@@ -9947,14 +10394,14 @@
         <v>7</v>
       </c>
       <c r="N110" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="O110" s="4" t="s">
         <v>11</v>
       </c>
       <c r="P110" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="Q110" s="5"/>
@@ -9968,14 +10415,14 @@
         <v>22</v>
       </c>
       <c r="U110" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>22</v>
       </c>
       <c r="V110" s="4" t="s">
         <v>17</v>
       </c>
       <c r="W110" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="X110" s="5"/>
@@ -9989,14 +10436,14 @@
         <v>8</v>
       </c>
       <c r="AB110" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AC110" s="4" t="s">
         <v>15</v>
       </c>
       <c r="AD110" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>15</v>
       </c>
     </row>
@@ -10020,14 +10467,14 @@
         <v>4</v>
       </c>
       <c r="G111" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="H111" s="4" t="s">
         <v>0</v>
       </c>
       <c r="I111" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="J111" s="5"/>
@@ -10041,14 +10488,14 @@
         <v>22</v>
       </c>
       <c r="N111" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>22</v>
       </c>
       <c r="O111" s="4" t="s">
         <v>12</v>
       </c>
       <c r="P111" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>12</v>
       </c>
       <c r="Q111" s="5"/>
@@ -10062,14 +10509,14 @@
         <v>6</v>
       </c>
       <c r="U111" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="V111" s="4" t="s">
         <v>18</v>
       </c>
       <c r="W111" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>18</v>
       </c>
       <c r="X111" s="5"/>
@@ -10083,14 +10530,14 @@
         <v>4</v>
       </c>
       <c r="AB111" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="AC111" s="4" t="s">
         <v>16</v>
       </c>
       <c r="AD111" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
     </row>
@@ -10112,14 +10559,14 @@
         <v>10</v>
       </c>
       <c r="G112" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>10</v>
       </c>
       <c r="H112" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I112" s="17">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J112" s="20" t="s">
@@ -10135,14 +10582,14 @@
         <v>19</v>
       </c>
       <c r="N112" s="17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>19</v>
       </c>
       <c r="O112" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P112" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>13</v>
       </c>
       <c r="Q112" s="5"/>
@@ -10156,14 +10603,14 @@
         <v>0</v>
       </c>
       <c r="U112" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="V112" s="4" t="s">
         <v>19</v>
       </c>
       <c r="W112" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>19</v>
       </c>
       <c r="X112" s="5"/>
@@ -10177,14 +10624,14 @@
         <v>1</v>
       </c>
       <c r="AB112" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AC112" s="4" t="s">
         <v>17</v>
       </c>
       <c r="AD112" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>17</v>
       </c>
     </row>
@@ -10206,14 +10653,14 @@
         <v>12</v>
       </c>
       <c r="G113" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>12</v>
       </c>
       <c r="H113" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I113" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="J113" s="5"/>
@@ -10227,14 +10674,14 @@
         <v>12</v>
       </c>
       <c r="N113" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="O113" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P113" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="Q113" s="5"/>
@@ -10248,14 +10695,14 @@
         <v>10</v>
       </c>
       <c r="U113" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="V113" s="6" t="s">
         <v>20</v>
       </c>
       <c r="W113" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>20</v>
       </c>
       <c r="X113" s="20" t="s">
@@ -10271,14 +10718,14 @@
         <v>5</v>
       </c>
       <c r="AB113" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>5</v>
       </c>
       <c r="AC113" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AD113" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>18</v>
       </c>
     </row>
@@ -10300,14 +10747,14 @@
         <v>5</v>
       </c>
       <c r="G114" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I114" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="J114" s="5"/>
@@ -10321,14 +10768,14 @@
         <v>2</v>
       </c>
       <c r="N114" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2</v>
       </c>
       <c r="O114" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P114" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>15</v>
       </c>
       <c r="Q114" s="5"/>
@@ -10342,14 +10789,14 @@
         <v>12</v>
       </c>
       <c r="U114" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="V114" s="4" t="s">
         <v>21</v>
       </c>
       <c r="W114" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>21</v>
       </c>
       <c r="X114" s="5"/>
@@ -10363,14 +10810,14 @@
         <v>25</v>
       </c>
       <c r="AB114" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>25</v>
       </c>
       <c r="AC114" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AD114" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>19</v>
       </c>
     </row>
@@ -10392,14 +10839,14 @@
         <v>11</v>
       </c>
       <c r="G115" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>11</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I115" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="J115" s="20" t="s">
@@ -10415,14 +10862,14 @@
         <v>16</v>
       </c>
       <c r="N115" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>16</v>
       </c>
       <c r="O115" s="6" t="s">
         <v>16</v>
       </c>
       <c r="P115" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>16</v>
       </c>
       <c r="Q115" s="20" t="s">
@@ -10438,14 +10885,14 @@
         <v>20</v>
       </c>
       <c r="U115" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="V115" s="4" t="s">
         <v>22</v>
       </c>
       <c r="W115" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>22</v>
       </c>
       <c r="X115" s="5"/>
@@ -10459,14 +10906,14 @@
         <v>2</v>
       </c>
       <c r="AB115" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="AC115" s="4" t="s">
         <v>20</v>
       </c>
       <c r="AD115" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
     </row>
@@ -10488,14 +10935,14 @@
         <v>6</v>
       </c>
       <c r="G116" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="H116" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I116" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="J116" s="5"/>
@@ -10509,14 +10956,14 @@
         <v>6</v>
       </c>
       <c r="N116" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="O116" s="4" t="s">
         <v>17</v>
       </c>
       <c r="P116" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>17</v>
       </c>
       <c r="Q116" s="5"/>
@@ -10530,14 +10977,14 @@
         <v>18</v>
       </c>
       <c r="U116" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="V116" s="4" t="s">
         <v>23</v>
       </c>
       <c r="W116" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>23</v>
       </c>
       <c r="X116" s="5"/>
@@ -10551,14 +10998,14 @@
         <v>22</v>
       </c>
       <c r="AB116" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>22</v>
       </c>
       <c r="AC116" s="4" t="s">
         <v>21</v>
       </c>
       <c r="AD116" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>21</v>
       </c>
     </row>
@@ -10580,14 +11027,14 @@
         <v>3</v>
       </c>
       <c r="G117" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="H117" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I117" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
       <c r="J117" s="5"/>
@@ -10601,14 +11048,14 @@
         <v>25</v>
       </c>
       <c r="N117" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>25</v>
       </c>
       <c r="O117" s="15" t="s">
         <v>18</v>
       </c>
       <c r="P117" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>18</v>
       </c>
       <c r="Q117" s="20" t="s">
@@ -10624,14 +11071,14 @@
         <v>16</v>
       </c>
       <c r="U117" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="V117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W117" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>24</v>
       </c>
       <c r="X117" s="5"/>
@@ -10645,14 +11092,14 @@
         <v>21</v>
       </c>
       <c r="AB117" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>21</v>
       </c>
       <c r="AC117" s="4" t="s">
         <v>22</v>
       </c>
       <c r="AD117" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>22</v>
       </c>
     </row>
@@ -10674,14 +11121,14 @@
         <v>16</v>
       </c>
       <c r="G118" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I118" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
       <c r="J118" s="5"/>
@@ -10695,14 +11142,14 @@
         <v>13</v>
       </c>
       <c r="N118" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="O118" s="17" t="s">
         <v>19</v>
       </c>
       <c r="P118" s="17">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>19</v>
       </c>
       <c r="Q118" s="20" t="s">
@@ -10718,14 +11165,14 @@
         <v>14</v>
       </c>
       <c r="U118" s="17">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="V118" s="4" t="s">
         <v>25</v>
       </c>
       <c r="W118" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>25</v>
       </c>
       <c r="X118" s="5"/>
@@ -10739,14 +11186,14 @@
         <v>9</v>
       </c>
       <c r="AB118" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>9</v>
       </c>
       <c r="AC118" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AD118" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>23</v>
       </c>
     </row>
@@ -10768,14 +11215,14 @@
         <v>21</v>
       </c>
       <c r="G119" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I119" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="J119" s="5"/>
@@ -10789,14 +11236,14 @@
         <v>15</v>
       </c>
       <c r="N119" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>15</v>
       </c>
       <c r="O119" s="4" t="s">
         <v>20</v>
       </c>
       <c r="P119" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>20</v>
       </c>
       <c r="Q119" s="5"/>
@@ -10810,14 +11257,14 @@
         <v>1</v>
       </c>
       <c r="U119" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="V119" s="4" t="s">
         <v>0</v>
       </c>
       <c r="W119" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X119" s="5"/>
@@ -10831,14 +11278,14 @@
         <v>0</v>
       </c>
       <c r="AB119" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AC119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="AD119" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
     </row>
@@ -10860,14 +11307,14 @@
         <v>25</v>
       </c>
       <c r="G120" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I120" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>9</v>
       </c>
       <c r="J120" s="5"/>
@@ -10881,14 +11328,14 @@
         <v>24</v>
       </c>
       <c r="N120" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>24</v>
       </c>
       <c r="O120" s="4" t="s">
         <v>21</v>
       </c>
       <c r="P120" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>21</v>
       </c>
       <c r="Q120" s="5"/>
@@ -10902,14 +11349,14 @@
         <v>3</v>
       </c>
       <c r="U120" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="V120" s="4" t="s">
         <v>1</v>
       </c>
       <c r="W120" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="X120" s="5"/>
@@ -10923,14 +11370,14 @@
         <v>19</v>
       </c>
       <c r="AB120" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>19</v>
       </c>
       <c r="AC120" s="4" t="s">
         <v>25</v>
       </c>
       <c r="AD120" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
     </row>
